--- a/REGULAR/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/PAYAD, MARICEL QUILAO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7675360F-BBB6-46C5-B9AE-5DDB0C6B781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="334">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1040,16 +1039,19 @@
     <t>01/31/23</t>
   </si>
   <si>
-    <t>sl(2-0-0)</t>
-  </si>
-  <si>
     <t>01/23-24</t>
+  </si>
+  <si>
+    <t>HRMO</t>
+  </si>
+  <si>
+    <t>REGULAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1286,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,6 +1442,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,7 +1478,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1708,7 +1713,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1754,25 +1758,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2079,95 +2083,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A235" activePane="bottomLeft"/>
-      <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A400" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B414" sqref="B414"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+      <c r="B4" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2175,7 +2183,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2188,24 +2196,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2249,7 +2257,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2259,13 +2267,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="64" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -2286,7 +2294,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>37181</v>
       </c>
@@ -2306,7 +2314,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
@@ -2326,7 +2334,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>37256</v>
       </c>
@@ -2346,8 +2354,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="20"/>
@@ -2368,7 +2376,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>37287</v>
       </c>
@@ -2388,7 +2396,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>37315</v>
       </c>
@@ -2408,7 +2416,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>37346</v>
       </c>
@@ -2428,7 +2436,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>37376</v>
       </c>
@@ -2448,7 +2456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>37407</v>
       </c>
@@ -2468,7 +2476,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>37437</v>
       </c>
@@ -2488,7 +2496,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>37468</v>
       </c>
@@ -2508,7 +2516,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>37499</v>
       </c>
@@ -2528,7 +2536,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>37529</v>
       </c>
@@ -2548,7 +2556,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>37560</v>
       </c>
@@ -2568,7 +2576,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>37590</v>
       </c>
@@ -2588,7 +2596,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>37621</v>
       </c>
@@ -2612,8 +2620,8 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="53" t="s">
         <v>46</v>
       </c>
       <c r="B27" s="20"/>
@@ -2634,7 +2642,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>37652</v>
       </c>
@@ -2654,7 +2662,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>37680</v>
       </c>
@@ -2674,7 +2682,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>37711</v>
       </c>
@@ -2694,7 +2702,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>37741</v>
       </c>
@@ -2714,7 +2722,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>37772</v>
       </c>
@@ -2734,7 +2742,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>37802</v>
       </c>
@@ -2754,7 +2762,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>37833</v>
       </c>
@@ -2774,7 +2782,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>37864</v>
       </c>
@@ -2794,7 +2802,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>37894</v>
       </c>
@@ -2814,7 +2822,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>37925</v>
       </c>
@@ -2834,7 +2842,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>37955</v>
       </c>
@@ -2854,7 +2862,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>37986</v>
       </c>
@@ -2878,8 +2886,8 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="64" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="20"/>
@@ -2900,7 +2908,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>38017</v>
       </c>
@@ -2920,7 +2928,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>38045</v>
       </c>
@@ -2940,7 +2948,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>38077</v>
       </c>
@@ -2960,7 +2968,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>38107</v>
       </c>
@@ -2980,7 +2988,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>38138</v>
       </c>
@@ -3000,7 +3008,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>38168</v>
       </c>
@@ -3020,7 +3028,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>38199</v>
       </c>
@@ -3046,7 +3054,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>38230</v>
       </c>
@@ -3066,7 +3074,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>38260</v>
       </c>
@@ -3086,7 +3094,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>38291</v>
       </c>
@@ -3106,7 +3114,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>38321</v>
       </c>
@@ -3126,7 +3134,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>38352</v>
       </c>
@@ -3150,8 +3158,8 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="20"/>
@@ -3172,7 +3180,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>38383</v>
       </c>
@@ -3192,7 +3200,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>38411</v>
       </c>
@@ -3212,7 +3220,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>38442</v>
       </c>
@@ -3232,7 +3240,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>38472</v>
       </c>
@@ -3256,7 +3264,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>38503</v>
       </c>
@@ -3276,7 +3284,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>38533</v>
       </c>
@@ -3296,7 +3304,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>38564</v>
       </c>
@@ -3316,7 +3324,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>38595</v>
       </c>
@@ -3336,7 +3344,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>38625</v>
       </c>
@@ -3356,7 +3364,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>38656</v>
       </c>
@@ -3376,7 +3384,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>38686</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>38717</v>
       </c>
@@ -3420,8 +3428,8 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="64" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="53" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="20"/>
@@ -3442,7 +3450,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>38748</v>
       </c>
@@ -3462,7 +3470,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>38776</v>
       </c>
@@ -3482,7 +3490,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>38807</v>
       </c>
@@ -3502,7 +3510,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>38837</v>
       </c>
@@ -3522,7 +3530,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>38868</v>
       </c>
@@ -3542,7 +3550,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>38898</v>
       </c>
@@ -3562,7 +3570,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>38929</v>
       </c>
@@ -3582,7 +3590,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>38960</v>
       </c>
@@ -3602,7 +3610,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>38990</v>
       </c>
@@ -3622,7 +3630,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>39021</v>
       </c>
@@ -3642,7 +3650,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>39051</v>
       </c>
@@ -3662,7 +3670,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>39082</v>
       </c>
@@ -3686,8 +3694,8 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="64" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="53" t="s">
         <v>50</v>
       </c>
       <c r="B79" s="20"/>
@@ -3708,7 +3716,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>39113</v>
       </c>
@@ -3728,7 +3736,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>39141</v>
       </c>
@@ -3748,7 +3756,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>39172</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>39202</v>
       </c>
@@ -3788,7 +3796,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>39233</v>
       </c>
@@ -3808,7 +3816,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>39263</v>
       </c>
@@ -3832,7 +3840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>39294</v>
       </c>
@@ -3858,7 +3866,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -3878,7 +3886,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>39325</v>
       </c>
@@ -3902,7 +3910,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>39355</v>
       </c>
@@ -3926,7 +3934,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>39386</v>
       </c>
@@ -3950,7 +3958,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="49"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20" t="s">
         <v>84</v>
@@ -3970,7 +3978,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>39416</v>
       </c>
@@ -3996,7 +4004,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>68</v>
@@ -4018,7 +4026,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20" t="s">
         <v>68</v>
@@ -4040,7 +4048,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4060,7 +4068,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>39447</v>
       </c>
@@ -4084,8 +4092,8 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="64" t="s">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B97" s="20"/>
@@ -4106,7 +4114,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>39478</v>
       </c>
@@ -4126,7 +4134,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>39506</v>
       </c>
@@ -4146,7 +4154,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>39538</v>
       </c>
@@ -4166,7 +4174,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>39568</v>
       </c>
@@ -4186,7 +4194,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>39599</v>
       </c>
@@ -4206,7 +4214,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>39629</v>
       </c>
@@ -4226,7 +4234,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>39660</v>
       </c>
@@ -4246,7 +4254,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>39691</v>
       </c>
@@ -4266,7 +4274,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4294,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>39752</v>
       </c>
@@ -4306,7 +4314,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>39782</v>
       </c>
@@ -4326,7 +4334,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>39813</v>
       </c>
@@ -4350,8 +4358,8 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="64" t="s">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="53" t="s">
         <v>53</v>
       </c>
       <c r="B110" s="20"/>
@@ -4372,7 +4380,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>39844</v>
       </c>
@@ -4398,7 +4406,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4418,7 +4426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20" t="s">
         <v>96</v>
@@ -4438,7 +4446,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>39872</v>
       </c>
@@ -4462,7 +4470,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>39903</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -4508,7 +4516,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>39933</v>
       </c>
@@ -4532,7 +4540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -4552,7 +4560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>103</v>
@@ -4572,7 +4580,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>39964</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>92</v>
@@ -4620,7 +4628,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>107</v>
@@ -4642,7 +4650,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>109</v>
@@ -4653,7 +4661,7 @@
       </c>
       <c r="E123" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4663,12 +4671,12 @@
       <c r="H123" s="40"/>
       <c r="I123" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>39994</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>111</v>
@@ -4714,7 +4722,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>40025</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>92</v>
@@ -4762,7 +4770,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="41" t="s">
         <v>115</v>
@@ -4773,7 +4781,7 @@
       </c>
       <c r="E128" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -4783,12 +4791,12 @@
       <c r="H128" s="40"/>
       <c r="I128" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="49"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>40056</v>
       </c>
@@ -4814,7 +4822,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>117</v>
@@ -4834,7 +4842,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="49"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>40086</v>
       </c>
@@ -4858,7 +4866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="20" t="s">
         <v>119</v>
@@ -4878,7 +4886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>40117</v>
       </c>
@@ -4898,7 +4906,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>40147</v>
       </c>
@@ -4922,7 +4930,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -4942,7 +4950,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>125</v>
       </c>
@@ -4962,7 +4970,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="49"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -4984,8 +4992,8 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="64" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="53" t="s">
         <v>54</v>
       </c>
       <c r="B138" s="20"/>
@@ -5006,7 +5014,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>40209</v>
       </c>
@@ -5032,7 +5040,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="20" t="s">
         <v>98</v>
@@ -5054,7 +5062,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="20" t="s">
         <v>129</v>
@@ -5074,7 +5082,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="49"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>40237</v>
       </c>
@@ -5100,7 +5108,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="20" t="s">
         <v>112</v>
@@ -5122,7 +5130,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="20" t="s">
         <v>132</v>
@@ -5144,7 +5152,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
       <c r="B145" s="20" t="s">
         <v>134</v>
@@ -5164,7 +5172,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="50"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>40268</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
       <c r="B147" s="20" t="s">
         <v>136</v>
@@ -5212,7 +5220,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="20" t="s">
         <v>122</v>
@@ -5234,7 +5242,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="20" t="s">
         <v>139</v>
@@ -5256,7 +5264,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
       <c r="B150" s="20" t="s">
         <v>102</v>
@@ -5276,7 +5284,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="20" t="s">
         <v>141</v>
@@ -5296,7 +5304,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="50"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>40298</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -5342,7 +5350,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>40329</v>
       </c>
@@ -5366,7 +5374,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -5386,7 +5394,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
       <c r="B156" s="20" t="s">
         <v>145</v>
@@ -5406,7 +5414,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -5428,7 +5436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>40359</v>
       </c>
@@ -5454,7 +5462,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="41" t="s">
         <v>149</v>
@@ -5474,7 +5482,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="49"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>40390</v>
       </c>
@@ -5500,7 +5508,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="20" t="s">
         <v>151</v>
@@ -5520,7 +5528,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>40421</v>
       </c>
@@ -5544,7 +5552,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>40451</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>132</v>
@@ -5589,7 +5597,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>68</v>
@@ -5604,7 +5612,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="49"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41"/>
       <c r="B166" s="20" t="s">
         <v>156</v>
@@ -5624,7 +5632,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="49"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>40482</v>
       </c>
@@ -5650,7 +5658,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>158</v>
@@ -5670,7 +5678,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>40512</v>
       </c>
@@ -5690,7 +5698,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <v>40543</v>
       </c>
@@ -5714,8 +5722,8 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A171" s="64" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="53" t="s">
         <v>55</v>
       </c>
       <c r="B171" s="20"/>
@@ -5732,7 +5740,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="42">
         <v>40574</v>
       </c>
@@ -5758,7 +5766,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="42"/>
       <c r="B173" s="20" t="s">
         <v>92</v>
@@ -5780,7 +5788,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="42"/>
       <c r="B174" s="20" t="s">
         <v>162</v>
@@ -5800,7 +5808,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="51"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <v>40602</v>
       </c>
@@ -5824,7 +5832,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
         <v>40633</v>
       </c>
@@ -5844,7 +5852,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <v>40663</v>
       </c>
@@ -5868,7 +5876,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20" t="s">
         <v>98</v>
@@ -5890,7 +5898,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20" t="s">
         <v>68</v>
@@ -5912,7 +5920,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -5934,7 +5942,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -5956,7 +5964,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20" t="s">
         <v>169</v>
@@ -5976,7 +5984,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="48"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <v>40694</v>
       </c>
@@ -6002,7 +6010,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20" t="s">
         <v>171</v>
@@ -6022,7 +6030,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <v>40724</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20" t="s">
         <v>173</v>
@@ -6068,7 +6076,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="49"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <v>40755</v>
       </c>
@@ -6094,7 +6102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>40786</v>
       </c>
@@ -6114,7 +6122,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>40816</v>
       </c>
@@ -6138,7 +6146,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20" t="s">
         <v>176</v>
@@ -6158,7 +6166,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="49"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
         <v>40847</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -6204,7 +6212,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
         <v>40877</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -6252,7 +6260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20" t="s">
         <v>181</v>
@@ -6272,7 +6280,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="49"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
         <v>40908</v>
       </c>
@@ -6296,8 +6304,8 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A197" s="64" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B197" s="20"/>
@@ -6314,7 +6322,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>40909</v>
       </c>
@@ -6340,7 +6348,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20" t="s">
         <v>184</v>
@@ -6360,7 +6368,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="49"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <v>40967</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41"/>
       <c r="B201" s="20" t="s">
         <v>163</v>
@@ -6406,7 +6414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="20" t="s">
         <v>187</v>
@@ -6426,7 +6434,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="49"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <v>40999</v>
       </c>
@@ -6452,7 +6460,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="20" t="s">
         <v>189</v>
@@ -6472,7 +6480,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41">
         <v>41029</v>
       </c>
@@ -6498,7 +6506,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="20" t="s">
         <v>192</v>
@@ -6518,7 +6526,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="49"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <v>41060</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="20" t="s">
         <v>68</v>
@@ -6566,7 +6574,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="20" t="s">
         <v>98</v>
@@ -6588,7 +6596,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41"/>
       <c r="B210" s="20" t="s">
         <v>195</v>
@@ -6608,7 +6616,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <v>41090</v>
       </c>
@@ -6632,7 +6640,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="20" t="s">
         <v>198</v>
@@ -6654,7 +6662,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="20" t="s">
         <v>200</v>
@@ -6674,7 +6682,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="49"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6690,7 +6698,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="49"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41">
         <v>41121</v>
       </c>
@@ -6716,7 +6724,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="41"/>
       <c r="B216" s="20" t="s">
         <v>201</v>
@@ -6736,7 +6744,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
         <v>41152</v>
       </c>
@@ -6762,7 +6770,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="20" t="s">
         <v>203</v>
@@ -6782,7 +6790,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41">
         <v>41182</v>
       </c>
@@ -6806,7 +6814,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="20" t="s">
         <v>205</v>
@@ -6828,7 +6836,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41"/>
       <c r="B221" s="20" t="s">
         <v>68</v>
@@ -6850,7 +6858,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="20" t="s">
         <v>208</v>
@@ -6870,7 +6878,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
         <v>41213</v>
       </c>
@@ -6894,7 +6902,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41">
         <v>41243</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41"/>
       <c r="B225" s="20" t="s">
         <v>211</v>
@@ -6940,7 +6948,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="49"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
         <v>41274</v>
       </c>
@@ -6964,8 +6972,8 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A227" s="64" t="s">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="53" t="s">
         <v>57</v>
       </c>
       <c r="B227" s="20"/>
@@ -6982,7 +6990,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41">
         <v>41275</v>
       </c>
@@ -7006,7 +7014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="20" t="s">
         <v>163</v>
@@ -7026,7 +7034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41"/>
       <c r="B230" s="20" t="s">
         <v>214</v>
@@ -7046,7 +7054,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="49"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
         <v>41306</v>
       </c>
@@ -7072,7 +7080,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="20" t="s">
         <v>216</v>
@@ -7092,7 +7100,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
         <v>41364</v>
       </c>
@@ -7116,7 +7124,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41"/>
       <c r="B234" s="20" t="s">
         <v>219</v>
@@ -7136,7 +7144,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="49"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="41">
         <v>41394</v>
       </c>
@@ -7162,7 +7170,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="20" t="s">
         <v>221</v>
@@ -7182,7 +7190,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <v>41425</v>
       </c>
@@ -7208,7 +7216,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41"/>
       <c r="B238" s="20" t="s">
         <v>223</v>
@@ -7228,7 +7236,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="49"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41">
         <v>41455</v>
       </c>
@@ -7252,7 +7260,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <v>41486</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41"/>
       <c r="B241" s="20" t="s">
         <v>226</v>
@@ -7298,7 +7306,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <v>41517</v>
       </c>
@@ -7318,7 +7326,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>41547</v>
       </c>
@@ -7342,7 +7350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>41578</v>
       </c>
@@ -7366,7 +7374,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -7386,7 +7394,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="49"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="41">
         <v>41608</v>
       </c>
@@ -7410,7 +7418,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <v>41639</v>
       </c>
@@ -7436,7 +7444,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41"/>
       <c r="B248" s="20" t="s">
         <v>232</v>
@@ -7456,8 +7464,8 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A249" s="64" t="s">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="53" t="s">
         <v>58</v>
       </c>
       <c r="B249" s="20"/>
@@ -7474,7 +7482,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>41670</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41"/>
       <c r="B251" s="20" t="s">
         <v>235</v>
@@ -7520,7 +7528,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="49"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>41698</v>
       </c>
@@ -7546,7 +7554,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="41"/>
       <c r="B253" s="20" t="s">
         <v>122</v>
@@ -7568,7 +7576,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="41"/>
       <c r="B254" s="20" t="s">
         <v>142</v>
@@ -7588,7 +7596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="41"/>
       <c r="B255" s="20" t="s">
         <v>238</v>
@@ -7608,7 +7616,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="49"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>41729</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="20" t="s">
         <v>243</v>
@@ -7654,7 +7662,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="49"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41"/>
       <c r="B258" s="20" t="s">
         <v>244</v>
@@ -7674,7 +7682,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="49"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="41">
         <v>41759</v>
       </c>
@@ -7698,7 +7706,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>41790</v>
       </c>
@@ -7722,7 +7730,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41">
         <v>41820</v>
       </c>
@@ -7748,7 +7756,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="41"/>
       <c r="B262" s="20" t="s">
         <v>151</v>
@@ -7768,7 +7776,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="49"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41">
         <v>41851</v>
       </c>
@@ -7794,7 +7802,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41"/>
       <c r="B264" s="20" t="s">
         <v>163</v>
@@ -7803,7 +7811,7 @@
       <c r="D264" s="40"/>
       <c r="E264" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="13" t="str">
@@ -7813,14 +7821,14 @@
       <c r="H264" s="40"/>
       <c r="I264" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J264" s="11"/>
       <c r="K264" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="41"/>
       <c r="B265" s="20" t="s">
         <v>250</v>
@@ -7831,7 +7839,7 @@
       </c>
       <c r="E265" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="13" t="str">
@@ -7841,12 +7849,12 @@
       <c r="H265" s="40"/>
       <c r="I265" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J265" s="11"/>
       <c r="K265" s="49"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>41882</v>
       </c>
@@ -7872,7 +7880,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="20" t="s">
         <v>251</v>
@@ -7883,7 +7891,7 @@
       </c>
       <c r="E267" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="13" t="str">
@@ -7893,12 +7901,12 @@
       <c r="H267" s="40"/>
       <c r="I267" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J267" s="11"/>
       <c r="K267" s="49"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="41">
         <v>41912</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="41"/>
       <c r="B269" s="20" t="s">
         <v>252</v>
@@ -7935,7 +7943,7 @@
       </c>
       <c r="E269" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="13" t="str">
@@ -7945,12 +7953,12 @@
       <c r="H269" s="40"/>
       <c r="I269" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>41943</v>
       </c>
@@ -7976,7 +7984,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41"/>
       <c r="B271" s="20" t="s">
         <v>254</v>
@@ -7987,7 +7995,7 @@
       </c>
       <c r="E271" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
@@ -7997,12 +8005,12 @@
       <c r="H271" s="40"/>
       <c r="I271" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="41">
         <v>41973</v>
       </c>
@@ -8026,7 +8034,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="41">
         <v>42004</v>
       </c>
@@ -8050,8 +8058,8 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A274" s="64" t="s">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="53" t="s">
         <v>59</v>
       </c>
       <c r="B274" s="20"/>
@@ -8068,7 +8076,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>42005</v>
       </c>
@@ -8092,7 +8100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="41"/>
       <c r="B276" s="20" t="s">
         <v>258</v>
@@ -8112,7 +8120,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="49"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="41">
         <v>42063</v>
       </c>
@@ -8136,7 +8144,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="41">
         <v>42094</v>
       </c>
@@ -8160,7 +8168,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="41"/>
       <c r="B279" s="20" t="s">
         <v>91</v>
@@ -8182,7 +8190,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="41"/>
       <c r="B280" s="20" t="s">
         <v>261</v>
@@ -8202,7 +8210,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="41">
         <v>42124</v>
       </c>
@@ -8228,7 +8236,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="41"/>
       <c r="B282" s="20" t="s">
         <v>263</v>
@@ -8248,7 +8256,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="41">
         <v>42155</v>
       </c>
@@ -8274,7 +8282,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="41"/>
       <c r="B284" s="20" t="s">
         <v>163</v>
@@ -8294,7 +8302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="41"/>
       <c r="B285" s="20" t="s">
         <v>267</v>
@@ -8314,7 +8322,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="41">
         <v>42185</v>
       </c>
@@ -8338,7 +8346,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="41">
         <v>42216</v>
       </c>
@@ -8364,7 +8372,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="41"/>
       <c r="B288" s="20" t="s">
         <v>246</v>
@@ -8375,7 +8383,7 @@
       </c>
       <c r="E288" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.07199999999989</v>
+        <v>133.07199999999989</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="13" t="str">
@@ -8385,12 +8393,12 @@
       <c r="H288" s="40"/>
       <c r="I288" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>142.58299999999997</v>
+        <v>147.58299999999997</v>
       </c>
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>42247</v>
       </c>
@@ -8414,7 +8422,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="41">
         <v>42277</v>
       </c>
@@ -8440,7 +8448,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="41">
         <v>42308</v>
       </c>
@@ -8464,7 +8472,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="41">
         <v>42338</v>
       </c>
@@ -8490,7 +8498,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="41"/>
       <c r="B293" s="20" t="s">
         <v>208</v>
@@ -8510,7 +8518,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="49"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="41">
         <v>42369</v>
       </c>
@@ -8534,8 +8542,8 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A295" s="64" t="s">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="53" t="s">
         <v>60</v>
       </c>
       <c r="B295" s="20"/>
@@ -8552,7 +8560,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <v>42370</v>
       </c>
@@ -8576,7 +8584,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="41"/>
       <c r="B297" s="20" t="s">
         <v>274</v>
@@ -8596,7 +8604,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="41">
         <v>42428</v>
       </c>
@@ -8620,7 +8628,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <v>42460</v>
       </c>
@@ -8646,7 +8654,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41"/>
       <c r="B300" s="20" t="s">
         <v>276</v>
@@ -8666,7 +8674,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="49"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="41">
         <v>42490</v>
       </c>
@@ -8690,7 +8698,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <v>42521</v>
       </c>
@@ -8714,7 +8722,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <v>42551</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41"/>
       <c r="B304" s="20" t="s">
         <v>279</v>
@@ -8755,7 +8763,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="49"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <v>42582</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="41"/>
       <c r="B306" s="20" t="s">
         <v>281</v>
@@ -8801,7 +8809,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="49"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="41">
         <v>42613</v>
       </c>
@@ -8825,7 +8833,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="41">
         <v>42643</v>
       </c>
@@ -8851,7 +8859,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="42"/>
       <c r="B309" s="15" t="s">
         <v>163</v>
@@ -8871,7 +8879,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="42"/>
       <c r="B310" s="15" t="s">
         <v>285</v>
@@ -8891,7 +8899,7 @@
       <c r="J310" s="12"/>
       <c r="K310" s="51"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="42">
         <v>42674</v>
       </c>
@@ -8917,7 +8925,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="42"/>
       <c r="B312" s="15" t="s">
         <v>287</v>
@@ -8937,7 +8945,7 @@
       <c r="J312" s="12"/>
       <c r="K312" s="51"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="42">
         <v>42704</v>
       </c>
@@ -8963,7 +8971,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>42735</v>
       </c>
@@ -8983,8 +8991,8 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A315" s="64" t="s">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="53" t="s">
         <v>61</v>
       </c>
       <c r="B315" s="20"/>
@@ -9001,7 +9009,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="41">
         <v>42766</v>
       </c>
@@ -9027,7 +9035,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="41"/>
       <c r="B317" s="20" t="s">
         <v>98</v>
@@ -9049,7 +9057,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="41"/>
       <c r="B318" s="20" t="s">
         <v>290</v>
@@ -9069,7 +9077,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="41">
         <v>42794</v>
       </c>
@@ -9093,7 +9101,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="41">
         <v>42825</v>
       </c>
@@ -9117,7 +9125,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="41"/>
       <c r="B321" s="20" t="s">
         <v>293</v>
@@ -9137,7 +9145,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="41">
         <v>42855</v>
       </c>
@@ -9163,7 +9171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="41"/>
       <c r="B323" s="20" t="s">
         <v>294</v>
@@ -9185,7 +9193,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="41"/>
       <c r="B324" s="20" t="s">
         <v>119</v>
@@ -9205,7 +9213,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="41">
         <v>42886</v>
       </c>
@@ -9225,7 +9233,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="41">
         <v>42916</v>
       </c>
@@ -9245,7 +9253,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="41">
         <v>42947</v>
       </c>
@@ -9269,7 +9277,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="41"/>
       <c r="B328" s="20" t="s">
         <v>68</v>
@@ -9291,7 +9299,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="41"/>
       <c r="B329" s="20" t="s">
         <v>98</v>
@@ -9313,7 +9321,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41"/>
       <c r="B330" s="20" t="s">
         <v>299</v>
@@ -9333,7 +9341,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="41">
         <v>42978</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="41">
         <v>43008</v>
       </c>
@@ -9383,7 +9391,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="41">
         <v>43039</v>
       </c>
@@ -9407,7 +9415,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="41">
         <v>43069</v>
       </c>
@@ -9427,7 +9435,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="41">
         <v>43100</v>
       </c>
@@ -9453,7 +9461,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="41"/>
       <c r="B336" s="20" t="s">
         <v>91</v>
@@ -9473,8 +9481,8 @@
       <c r="J336" s="11"/>
       <c r="K336" s="49"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A337" s="64" t="s">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" s="53" t="s">
         <v>62</v>
       </c>
       <c r="B337" s="20"/>
@@ -9491,7 +9499,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="41">
         <v>43131</v>
       </c>
@@ -9517,7 +9525,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <v>43159</v>
       </c>
@@ -9537,7 +9545,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="41">
         <v>43190</v>
       </c>
@@ -9557,7 +9565,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="41">
         <v>43220</v>
       </c>
@@ -9577,7 +9585,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="41">
         <v>43251</v>
       </c>
@@ -9597,7 +9605,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="41">
         <v>43281</v>
       </c>
@@ -9617,7 +9625,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="41">
         <v>43312</v>
       </c>
@@ -9641,7 +9649,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41">
         <v>43343</v>
       </c>
@@ -9667,7 +9675,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="41">
         <v>43373</v>
       </c>
@@ -9693,7 +9701,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="41">
         <v>43404</v>
       </c>
@@ -9713,7 +9721,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="41">
         <v>43434</v>
       </c>
@@ -9733,7 +9741,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="41">
         <v>43465</v>
       </c>
@@ -9757,8 +9765,8 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A350" s="64" t="s">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" s="53" t="s">
         <v>63</v>
       </c>
       <c r="B350" s="20"/>
@@ -9775,7 +9783,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41">
         <v>43496</v>
       </c>
@@ -9801,7 +9809,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="41"/>
       <c r="B352" s="20" t="s">
         <v>163</v>
@@ -9821,7 +9829,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="41">
         <v>43524</v>
       </c>
@@ -9841,7 +9849,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="41">
         <v>43555</v>
       </c>
@@ -9867,7 +9875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="41"/>
       <c r="B355" s="20" t="s">
         <v>142</v>
@@ -9887,7 +9895,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41">
         <v>43585</v>
       </c>
@@ -9907,7 +9915,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="41">
         <v>43616</v>
       </c>
@@ -9927,7 +9935,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="41">
         <v>43646</v>
       </c>
@@ -9947,7 +9955,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="41">
         <v>43677</v>
       </c>
@@ -9967,7 +9975,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="41">
         <v>43708</v>
       </c>
@@ -9987,7 +9995,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="41">
         <v>43738</v>
       </c>
@@ -10007,7 +10015,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="41">
         <v>43769</v>
       </c>
@@ -10033,7 +10041,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="41">
         <v>43799</v>
       </c>
@@ -10053,7 +10061,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="41">
         <v>43830</v>
       </c>
@@ -10077,8 +10085,8 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A365" s="64" t="s">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="53" t="s">
         <v>64</v>
       </c>
       <c r="B365" s="20"/>
@@ -10095,7 +10103,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41">
         <v>43861</v>
       </c>
@@ -10115,7 +10123,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="41">
         <v>43889</v>
       </c>
@@ -10135,7 +10143,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="41">
         <v>43921</v>
       </c>
@@ -10155,7 +10163,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="41">
         <v>43951</v>
       </c>
@@ -10175,7 +10183,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="41">
         <v>43982</v>
       </c>
@@ -10195,7 +10203,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="41">
         <v>44012</v>
       </c>
@@ -10215,7 +10223,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="41">
         <v>44043</v>
       </c>
@@ -10235,7 +10243,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="41">
         <v>44074</v>
       </c>
@@ -10255,7 +10263,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="41">
         <v>44104</v>
       </c>
@@ -10275,7 +10283,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="41">
         <v>44135</v>
       </c>
@@ -10295,7 +10303,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="41">
         <v>44165</v>
       </c>
@@ -10315,7 +10323,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="41">
         <v>44196</v>
       </c>
@@ -10339,8 +10347,8 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A378" s="64" t="s">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="53" t="s">
         <v>65</v>
       </c>
       <c r="B378" s="20"/>
@@ -10357,7 +10365,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="41">
         <v>44227</v>
       </c>
@@ -10381,7 +10389,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="41">
         <v>44255</v>
       </c>
@@ -10401,7 +10409,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="41">
         <v>44286</v>
       </c>
@@ -10421,7 +10429,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41">
         <v>44316</v>
       </c>
@@ -10441,7 +10449,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="41">
         <v>44347</v>
       </c>
@@ -10467,7 +10475,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="41">
         <v>44377</v>
       </c>
@@ -10487,7 +10495,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <v>44408</v>
       </c>
@@ -10507,7 +10515,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="41">
         <v>44439</v>
       </c>
@@ -10527,7 +10535,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="41">
         <v>44469</v>
       </c>
@@ -10547,7 +10555,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="41">
         <v>44500</v>
       </c>
@@ -10567,7 +10575,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="41">
         <v>44530</v>
       </c>
@@ -10593,7 +10601,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="41"/>
       <c r="B390" s="20" t="s">
         <v>132</v>
@@ -10615,7 +10623,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="41">
         <v>44561</v>
       </c>
@@ -10639,8 +10647,8 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="64" t="s">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="53" t="s">
         <v>66</v>
       </c>
       <c r="B392" s="20"/>
@@ -10657,7 +10665,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="41">
         <v>44562</v>
       </c>
@@ -10681,7 +10689,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="41">
         <v>44620</v>
       </c>
@@ -10701,7 +10709,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="41">
         <v>44651</v>
       </c>
@@ -10725,7 +10733,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41">
         <v>44681</v>
       </c>
@@ -10749,7 +10757,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="41">
         <v>44712</v>
       </c>
@@ -10769,7 +10777,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="41">
         <v>44742</v>
       </c>
@@ -10789,7 +10797,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="41">
         <v>44773</v>
       </c>
@@ -10809,7 +10817,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>44804</v>
       </c>
@@ -10835,7 +10843,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="41"/>
       <c r="B401" s="20" t="s">
         <v>205</v>
@@ -10855,7 +10863,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="49"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="41">
         <v>44834</v>
       </c>
@@ -10875,7 +10883,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="41">
         <v>44865</v>
       </c>
@@ -10901,7 +10909,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="41">
         <v>44895</v>
       </c>
@@ -10927,7 +10935,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="41"/>
       <c r="B405" s="20" t="s">
         <v>136</v>
@@ -10949,7 +10957,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
         <v>328</v>
       </c>
@@ -10969,8 +10977,8 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A407" s="64" t="s">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="53" t="s">
         <v>329</v>
       </c>
       <c r="B407" s="20"/>
@@ -10987,20 +10995,22 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23" t="s">
         <v>330</v>
       </c>
       <c r="B408" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="C408" s="13"/>
+        <v>98</v>
+      </c>
+      <c r="C408" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D408" s="40"/>
       <c r="E408" s="9"/>
       <c r="F408" s="20"/>
-      <c r="G408" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G408" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H408" s="40">
         <v>2</v>
@@ -11008,58 +11018,74 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A409" s="41"/>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="41">
+        <v>44958</v>
+      </c>
       <c r="B409" s="20"/>
-      <c r="C409" s="13"/>
+      <c r="C409" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D409" s="40"/>
       <c r="E409" s="9"/>
       <c r="F409" s="20"/>
-      <c r="G409" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G409" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H409" s="40"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A410" s="41"/>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="41">
+        <v>44986</v>
+      </c>
       <c r="B410" s="20"/>
-      <c r="C410" s="13"/>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D410" s="40"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G410" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H410" s="40"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A411" s="41"/>
-      <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="41">
+        <v>45017</v>
+      </c>
+      <c r="B411" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="40"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G411" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H411" s="40"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="20"/>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K411" s="65">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="41"/>
       <c r="B412" s="20"/>
       <c r="C412" s="13"/>
@@ -11075,7 +11101,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="41"/>
       <c r="B413" s="20"/>
       <c r="C413" s="13"/>
@@ -11091,7 +11117,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="41"/>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
@@ -11107,7 +11133,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="41"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
@@ -11123,7 +11149,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="41"/>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -11139,7 +11165,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="41"/>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11155,7 +11181,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="41"/>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11171,7 +11197,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="41"/>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11187,7 +11213,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="41"/>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11203,7 +11229,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="41"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11219,7 +11245,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="41"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11235,7 +11261,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="41"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11251,7 +11277,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="41"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11267,7 +11293,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="41"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11283,7 +11309,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="41"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11299,7 +11325,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="41"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11315,7 +11341,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="41"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11331,7 +11357,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="41"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11347,7 +11373,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="41"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11363,7 +11389,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="41"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11379,7 +11405,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="41"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11395,7 +11421,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="41"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11411,7 +11437,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="41"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11427,7 +11453,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11443,7 +11469,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="41"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11459,7 +11485,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="41"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11475,7 +11501,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11491,7 +11517,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="41"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11507,7 +11533,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="41"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11523,7 +11549,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11539,7 +11565,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="41"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11555,7 +11581,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="41"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11571,7 +11597,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="41"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11587,7 +11613,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="41"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11603,7 +11629,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="41"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11619,7 +11645,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11635,7 +11661,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="41"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11651,7 +11677,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="41"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11667,7 +11693,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11683,7 +11709,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="41"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11699,7 +11725,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="41"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11715,7 +11741,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="41"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11731,7 +11757,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="41"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11747,7 +11773,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="41"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11763,7 +11789,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="41"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11779,7 +11805,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="41"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11795,7 +11821,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="41"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11811,7 +11837,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="41"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11827,7 +11853,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="41"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11843,7 +11869,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="41"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11856,7 +11882,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="41"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11869,7 +11895,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11882,7 +11908,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="41"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11895,7 +11921,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="42"/>
       <c r="B465" s="15"/>
       <c r="C465" s="43"/>
@@ -11923,10 +11949,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11949,41 +11975,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12012,7 +12038,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12034,7 +12060,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -12049,10 +12075,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -12065,14 +12091,14 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -12098,7 +12124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -12124,7 +12150,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -12150,7 +12176,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -12176,7 +12202,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -12202,7 +12228,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -12228,7 +12254,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12254,7 +12280,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12280,7 +12306,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12300,7 +12326,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12320,7 +12346,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12340,7 +12366,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12361,7 +12387,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12382,7 +12408,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12403,7 +12429,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12424,7 +12450,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12445,7 +12471,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12466,7 +12492,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12487,7 +12513,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12508,7 +12534,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12529,7 +12555,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12550,7 +12576,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12571,7 +12597,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12592,7 +12618,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12613,7 +12639,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12634,7 +12660,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12655,7 +12681,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12676,7 +12702,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12697,7 +12723,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12718,7 +12744,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12739,7 +12765,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12760,7 +12786,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12769,7 +12795,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12778,7 +12804,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12787,7 +12813,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12796,7 +12822,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12805,7 +12831,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12814,7 +12840,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12823,7 +12849,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12832,7 +12858,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12841,7 +12867,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12850,7 +12876,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12859,7 +12885,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12868,7 +12894,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12877,7 +12903,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12886,7 +12912,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12895,7 +12921,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12904,7 +12930,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12913,7 +12939,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12922,7 +12948,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12931,7 +12957,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12940,7 +12966,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12949,7 +12975,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12958,7 +12984,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12967,7 +12993,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -12976,7 +13002,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -12985,7 +13011,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -12994,7 +13020,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -13003,7 +13029,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -13012,7 +13038,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -13021,7 +13047,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/PAYAD, MARICEL QUILAO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71C102-BF54-4865-AFC2-43F6A8120C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,28 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="333">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1034,9 +1024,6 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t>01/31/23</t>
   </si>
   <si>
     <t>01/23-24</t>
@@ -1051,13 +1038,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1086,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1445,6 +1438,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1477,9 +1473,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,7 +1734,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1758,25 +1751,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2083,99 +2076,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A400" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A408" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B414" sqref="B414"/>
+      <selection pane="bottomLeft" activeCell="C415" sqref="C415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="55"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="55"/>
+      <c r="B4" s="56" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>332</v>
-      </c>
-      <c r="G4" s="56"/>
+      <c r="F4" s="57" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2183,7 +2176,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2196,24 +2189,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2248,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2257,7 +2250,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2267,12 +2260,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2287,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>37181</v>
       </c>
@@ -2314,7 +2307,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
@@ -2334,7 +2327,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>37256</v>
       </c>
@@ -2354,7 +2347,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +2369,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>37287</v>
       </c>
@@ -2396,7 +2389,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="42">
         <v>37315</v>
       </c>
@@ -2416,7 +2409,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>37346</v>
       </c>
@@ -2436,7 +2429,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>37376</v>
       </c>
@@ -2456,7 +2449,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>37407</v>
       </c>
@@ -2476,7 +2469,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>37437</v>
       </c>
@@ -2496,7 +2489,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>37468</v>
       </c>
@@ -2516,7 +2509,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>37499</v>
       </c>
@@ -2536,7 +2529,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>37529</v>
       </c>
@@ -2556,7 +2549,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>37560</v>
       </c>
@@ -2576,7 +2569,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>37590</v>
       </c>
@@ -2596,7 +2589,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>37621</v>
       </c>
@@ -2620,7 +2613,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="53" t="s">
         <v>46</v>
       </c>
@@ -2642,7 +2635,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>37652</v>
       </c>
@@ -2662,7 +2655,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>37680</v>
       </c>
@@ -2682,7 +2675,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>37711</v>
       </c>
@@ -2702,7 +2695,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>37741</v>
       </c>
@@ -2722,7 +2715,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>37772</v>
       </c>
@@ -2742,7 +2735,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>37802</v>
       </c>
@@ -2762,7 +2755,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>37833</v>
       </c>
@@ -2782,7 +2775,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>37864</v>
       </c>
@@ -2802,7 +2795,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>37894</v>
       </c>
@@ -2822,7 +2815,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>37925</v>
       </c>
@@ -2842,7 +2835,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>37955</v>
       </c>
@@ -2862,7 +2855,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>37986</v>
       </c>
@@ -2886,7 +2879,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
@@ -2908,7 +2901,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>38017</v>
       </c>
@@ -2928,7 +2921,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>38045</v>
       </c>
@@ -2948,7 +2941,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>38077</v>
       </c>
@@ -2968,7 +2961,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>38107</v>
       </c>
@@ -2988,7 +2981,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>38138</v>
       </c>
@@ -3008,7 +3001,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>38168</v>
       </c>
@@ -3028,7 +3021,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>38199</v>
       </c>
@@ -3054,7 +3047,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>38230</v>
       </c>
@@ -3074,7 +3067,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>38260</v>
       </c>
@@ -3094,7 +3087,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>38291</v>
       </c>
@@ -3114,7 +3107,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>38321</v>
       </c>
@@ -3134,7 +3127,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>38352</v>
       </c>
@@ -3158,7 +3151,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="53" t="s">
         <v>48</v>
       </c>
@@ -3180,7 +3173,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>38383</v>
       </c>
@@ -3200,7 +3193,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>38411</v>
       </c>
@@ -3220,7 +3213,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>38442</v>
       </c>
@@ -3240,7 +3233,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>38472</v>
       </c>
@@ -3264,7 +3257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>38503</v>
       </c>
@@ -3284,7 +3277,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>38533</v>
       </c>
@@ -3304,7 +3297,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>38564</v>
       </c>
@@ -3324,7 +3317,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>38595</v>
       </c>
@@ -3344,7 +3337,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>38625</v>
       </c>
@@ -3364,7 +3357,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>38656</v>
       </c>
@@ -3384,7 +3377,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>38686</v>
       </c>
@@ -3404,7 +3397,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>38717</v>
       </c>
@@ -3428,7 +3421,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="53" t="s">
         <v>49</v>
       </c>
@@ -3450,7 +3443,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>38748</v>
       </c>
@@ -3470,7 +3463,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>38776</v>
       </c>
@@ -3490,7 +3483,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>38807</v>
       </c>
@@ -3510,7 +3503,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>38837</v>
       </c>
@@ -3530,7 +3523,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>38868</v>
       </c>
@@ -3550,7 +3543,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>38898</v>
       </c>
@@ -3570,7 +3563,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>38929</v>
       </c>
@@ -3590,7 +3583,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>38960</v>
       </c>
@@ -3610,7 +3603,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>38990</v>
       </c>
@@ -3630,7 +3623,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>39021</v>
       </c>
@@ -3650,7 +3643,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>39051</v>
       </c>
@@ -3670,7 +3663,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>39082</v>
       </c>
@@ -3694,7 +3687,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="53" t="s">
         <v>50</v>
       </c>
@@ -3716,7 +3709,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>39113</v>
       </c>
@@ -3736,7 +3729,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>39141</v>
       </c>
@@ -3756,7 +3749,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>39172</v>
       </c>
@@ -3776,7 +3769,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>39202</v>
       </c>
@@ -3796,7 +3789,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>39233</v>
       </c>
@@ -3816,7 +3809,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>39263</v>
       </c>
@@ -3840,7 +3833,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>39294</v>
       </c>
@@ -3866,7 +3859,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -3886,7 +3879,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>39325</v>
       </c>
@@ -3910,7 +3903,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>39355</v>
       </c>
@@ -3934,7 +3927,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>39386</v>
       </c>
@@ -3958,7 +3951,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="49"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20" t="s">
         <v>84</v>
@@ -3978,7 +3971,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>39416</v>
       </c>
@@ -4004,7 +3997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>68</v>
@@ -4026,7 +4019,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20" t="s">
         <v>68</v>
@@ -4048,7 +4041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4068,7 +4061,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>39447</v>
       </c>
@@ -4092,7 +4085,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="53" t="s">
         <v>51</v>
       </c>
@@ -4114,7 +4107,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>39478</v>
       </c>
@@ -4134,7 +4127,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
         <v>39506</v>
       </c>
@@ -4154,7 +4147,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>39538</v>
       </c>
@@ -4174,7 +4167,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
         <v>39568</v>
       </c>
@@ -4194,7 +4187,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
         <v>39599</v>
       </c>
@@ -4214,7 +4207,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
         <v>39629</v>
       </c>
@@ -4234,7 +4227,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
         <v>39660</v>
       </c>
@@ -4254,7 +4247,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
         <v>39691</v>
       </c>
@@ -4274,7 +4267,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41" t="s">
         <v>52</v>
       </c>
@@ -4294,7 +4287,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
         <v>39752</v>
       </c>
@@ -4314,7 +4307,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <v>39782</v>
       </c>
@@ -4334,7 +4327,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
         <v>39813</v>
       </c>
@@ -4358,7 +4351,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="53" t="s">
         <v>53</v>
       </c>
@@ -4380,7 +4373,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
         <v>39844</v>
       </c>
@@ -4406,7 +4399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="41"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4426,7 +4419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="41"/>
       <c r="B113" s="20" t="s">
         <v>96</v>
@@ -4446,7 +4439,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
         <v>39872</v>
       </c>
@@ -4470,7 +4463,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
         <v>39903</v>
       </c>
@@ -4496,7 +4489,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="41"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -4516,7 +4509,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
         <v>39933</v>
       </c>
@@ -4540,7 +4533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -4560,7 +4553,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>103</v>
@@ -4580,7 +4573,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
         <v>39964</v>
       </c>
@@ -4606,7 +4599,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>92</v>
@@ -4628,7 +4621,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>107</v>
@@ -4650,7 +4643,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>109</v>
@@ -4661,7 +4654,7 @@
       </c>
       <c r="E123" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4671,12 +4664,12 @@
       <c r="H123" s="40"/>
       <c r="I123" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>39994</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>111</v>
@@ -4722,7 +4715,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>40025</v>
       </c>
@@ -4748,7 +4741,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>92</v>
@@ -4770,7 +4763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
       <c r="B128" s="41" t="s">
         <v>115</v>
@@ -4781,7 +4774,7 @@
       </c>
       <c r="E128" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -4791,12 +4784,12 @@
       <c r="H128" s="40"/>
       <c r="I128" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="49"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
         <v>40056</v>
       </c>
@@ -4822,7 +4815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>117</v>
@@ -4842,7 +4835,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="49"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
         <v>40086</v>
       </c>
@@ -4866,7 +4859,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
       <c r="B132" s="20" t="s">
         <v>119</v>
@@ -4886,7 +4879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
         <v>40117</v>
       </c>
@@ -4906,7 +4899,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
         <v>40147</v>
       </c>
@@ -4930,7 +4923,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -4950,7 +4943,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="s">
         <v>125</v>
       </c>
@@ -4970,7 +4963,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="49"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -4992,7 +4985,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="53" t="s">
         <v>54</v>
       </c>
@@ -5014,7 +5007,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
         <v>40209</v>
       </c>
@@ -5040,7 +5033,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="41"/>
       <c r="B140" s="20" t="s">
         <v>98</v>
@@ -5062,7 +5055,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="20" t="s">
         <v>129</v>
@@ -5082,7 +5075,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="49"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
         <v>40237</v>
       </c>
@@ -5108,7 +5101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="41"/>
       <c r="B143" s="20" t="s">
         <v>112</v>
@@ -5130,7 +5123,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="41"/>
       <c r="B144" s="20" t="s">
         <v>132</v>
@@ -5152,7 +5145,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="41"/>
       <c r="B145" s="20" t="s">
         <v>134</v>
@@ -5172,7 +5165,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="50"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
         <v>40268</v>
       </c>
@@ -5198,7 +5191,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="41"/>
       <c r="B147" s="20" t="s">
         <v>136</v>
@@ -5220,7 +5213,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="41"/>
       <c r="B148" s="20" t="s">
         <v>122</v>
@@ -5242,7 +5235,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="41"/>
       <c r="B149" s="20" t="s">
         <v>139</v>
@@ -5264,7 +5257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="41"/>
       <c r="B150" s="20" t="s">
         <v>102</v>
@@ -5284,7 +5277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="20" t="s">
         <v>141</v>
@@ -5304,7 +5297,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="50"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
         <v>40298</v>
       </c>
@@ -5328,7 +5321,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="41"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -5350,7 +5343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="41">
         <v>40329</v>
       </c>
@@ -5374,7 +5367,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="41"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -5394,7 +5387,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="41"/>
       <c r="B156" s="20" t="s">
         <v>145</v>
@@ -5414,7 +5407,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="41"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -5436,7 +5429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
         <v>40359</v>
       </c>
@@ -5462,7 +5455,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="41"/>
       <c r="B159" s="41" t="s">
         <v>149</v>
@@ -5482,7 +5475,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="49"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
         <v>40390</v>
       </c>
@@ -5508,7 +5501,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="20" t="s">
         <v>151</v>
@@ -5528,7 +5521,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
         <v>40421</v>
       </c>
@@ -5552,7 +5545,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <v>40451</v>
       </c>
@@ -5578,7 +5571,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>132</v>
@@ -5597,7 +5590,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>68</v>
@@ -5612,7 +5605,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="49"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="41"/>
       <c r="B166" s="20" t="s">
         <v>156</v>
@@ -5632,7 +5625,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="49"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <v>40482</v>
       </c>
@@ -5658,7 +5651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>158</v>
@@ -5678,7 +5671,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <v>40512</v>
       </c>
@@ -5698,7 +5691,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <v>40543</v>
       </c>
@@ -5722,7 +5715,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="53" t="s">
         <v>55</v>
       </c>
@@ -5740,7 +5733,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="42">
         <v>40574</v>
       </c>
@@ -5766,7 +5759,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="42"/>
       <c r="B173" s="20" t="s">
         <v>92</v>
@@ -5788,7 +5781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="42"/>
       <c r="B174" s="20" t="s">
         <v>162</v>
@@ -5808,7 +5801,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="51"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <v>40602</v>
       </c>
@@ -5832,7 +5825,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="41">
         <v>40633</v>
       </c>
@@ -5852,7 +5845,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <v>40663</v>
       </c>
@@ -5876,7 +5869,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="41"/>
       <c r="B178" s="20" t="s">
         <v>98</v>
@@ -5898,7 +5891,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="41"/>
       <c r="B179" s="20" t="s">
         <v>68</v>
@@ -5920,7 +5913,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="41"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -5942,7 +5935,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="41"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -5964,7 +5957,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="41"/>
       <c r="B182" s="20" t="s">
         <v>169</v>
@@ -5984,7 +5977,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="48"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <v>40694</v>
       </c>
@@ -6010,7 +6003,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="41"/>
       <c r="B184" s="20" t="s">
         <v>171</v>
@@ -6030,7 +6023,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <v>40724</v>
       </c>
@@ -6056,7 +6049,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="41"/>
       <c r="B186" s="20" t="s">
         <v>173</v>
@@ -6076,7 +6069,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="49"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="41">
         <v>40755</v>
       </c>
@@ -6102,7 +6095,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="41">
         <v>40786</v>
       </c>
@@ -6122,7 +6115,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="41">
         <v>40816</v>
       </c>
@@ -6146,7 +6139,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="20" t="s">
         <v>176</v>
@@ -6166,7 +6159,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="49"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="41">
         <v>40847</v>
       </c>
@@ -6192,7 +6185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="41"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -6212,7 +6205,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="41">
         <v>40877</v>
       </c>
@@ -6238,7 +6231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="41"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -6260,7 +6253,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="20" t="s">
         <v>181</v>
@@ -6280,7 +6273,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="49"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="41">
         <v>40908</v>
       </c>
@@ -6304,7 +6297,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="53" t="s">
         <v>56</v>
       </c>
@@ -6322,7 +6315,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41">
         <v>40909</v>
       </c>
@@ -6348,7 +6341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="41"/>
       <c r="B199" s="20" t="s">
         <v>184</v>
@@ -6368,7 +6361,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="49"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <v>40967</v>
       </c>
@@ -6394,7 +6387,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="41"/>
       <c r="B201" s="20" t="s">
         <v>163</v>
@@ -6414,7 +6407,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="41"/>
       <c r="B202" s="20" t="s">
         <v>187</v>
@@ -6434,7 +6427,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="49"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <v>40999</v>
       </c>
@@ -6460,7 +6453,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="41"/>
       <c r="B204" s="20" t="s">
         <v>189</v>
@@ -6480,7 +6473,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="41">
         <v>41029</v>
       </c>
@@ -6506,7 +6499,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="41"/>
       <c r="B206" s="20" t="s">
         <v>192</v>
@@ -6526,7 +6519,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="49"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="41">
         <v>41060</v>
       </c>
@@ -6552,7 +6545,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="41"/>
       <c r="B208" s="20" t="s">
         <v>68</v>
@@ -6574,7 +6567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="41"/>
       <c r="B209" s="20" t="s">
         <v>98</v>
@@ -6596,7 +6589,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="41"/>
       <c r="B210" s="20" t="s">
         <v>195</v>
@@ -6616,7 +6609,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <v>41090</v>
       </c>
@@ -6640,7 +6633,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="41"/>
       <c r="B212" s="20" t="s">
         <v>198</v>
@@ -6662,7 +6655,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="41"/>
       <c r="B213" s="20" t="s">
         <v>200</v>
@@ -6682,7 +6675,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="49"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6698,7 +6691,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="49"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="41">
         <v>41121</v>
       </c>
@@ -6724,7 +6717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="41"/>
       <c r="B216" s="20" t="s">
         <v>201</v>
@@ -6744,7 +6737,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="41">
         <v>41152</v>
       </c>
@@ -6770,7 +6763,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="41"/>
       <c r="B218" s="20" t="s">
         <v>203</v>
@@ -6790,7 +6783,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="41">
         <v>41182</v>
       </c>
@@ -6814,7 +6807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="20" t="s">
         <v>205</v>
@@ -6836,7 +6829,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="41"/>
       <c r="B221" s="20" t="s">
         <v>68</v>
@@ -6858,7 +6851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="41"/>
       <c r="B222" s="20" t="s">
         <v>208</v>
@@ -6878,7 +6871,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="41">
         <v>41213</v>
       </c>
@@ -6902,7 +6895,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="41">
         <v>41243</v>
       </c>
@@ -6928,7 +6921,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="41"/>
       <c r="B225" s="20" t="s">
         <v>211</v>
@@ -6948,7 +6941,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="49"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="41">
         <v>41274</v>
       </c>
@@ -6972,7 +6965,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="53" t="s">
         <v>57</v>
       </c>
@@ -6990,7 +6983,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="41">
         <v>41275</v>
       </c>
@@ -7014,7 +7007,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="41"/>
       <c r="B229" s="20" t="s">
         <v>163</v>
@@ -7034,7 +7027,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="41"/>
       <c r="B230" s="20" t="s">
         <v>214</v>
@@ -7054,7 +7047,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="49"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="41">
         <v>41306</v>
       </c>
@@ -7080,7 +7073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="41"/>
       <c r="B232" s="20" t="s">
         <v>216</v>
@@ -7100,7 +7093,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="41">
         <v>41364</v>
       </c>
@@ -7124,7 +7117,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="41"/>
       <c r="B234" s="20" t="s">
         <v>219</v>
@@ -7144,7 +7137,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="49"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="41">
         <v>41394</v>
       </c>
@@ -7170,7 +7163,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="41"/>
       <c r="B236" s="20" t="s">
         <v>221</v>
@@ -7190,7 +7183,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41">
         <v>41425</v>
       </c>
@@ -7216,7 +7209,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="41"/>
       <c r="B238" s="20" t="s">
         <v>223</v>
@@ -7236,7 +7229,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="49"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41">
         <v>41455</v>
       </c>
@@ -7260,7 +7253,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="41">
         <v>41486</v>
       </c>
@@ -7286,7 +7279,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="41"/>
       <c r="B241" s="20" t="s">
         <v>226</v>
@@ -7306,7 +7299,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="41">
         <v>41517</v>
       </c>
@@ -7326,7 +7319,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="41">
         <v>41547</v>
       </c>
@@ -7350,7 +7343,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41">
         <v>41578</v>
       </c>
@@ -7374,7 +7367,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="41"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -7394,7 +7387,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="49"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="41">
         <v>41608</v>
       </c>
@@ -7418,7 +7411,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="41">
         <v>41639</v>
       </c>
@@ -7444,7 +7437,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41"/>
       <c r="B248" s="20" t="s">
         <v>232</v>
@@ -7464,7 +7457,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="53" t="s">
         <v>58</v>
       </c>
@@ -7482,7 +7475,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <v>41670</v>
       </c>
@@ -7508,7 +7501,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41"/>
       <c r="B251" s="20" t="s">
         <v>235</v>
@@ -7528,7 +7521,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="49"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <v>41698</v>
       </c>
@@ -7554,7 +7547,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="41"/>
       <c r="B253" s="20" t="s">
         <v>122</v>
@@ -7576,7 +7569,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="41"/>
       <c r="B254" s="20" t="s">
         <v>142</v>
@@ -7596,7 +7589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="41"/>
       <c r="B255" s="20" t="s">
         <v>238</v>
@@ -7616,7 +7609,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="49"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="41">
         <v>41729</v>
       </c>
@@ -7642,7 +7635,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="41"/>
       <c r="B257" s="20" t="s">
         <v>243</v>
@@ -7662,7 +7655,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="49"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41"/>
       <c r="B258" s="20" t="s">
         <v>244</v>
@@ -7682,7 +7675,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="49"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="41">
         <v>41759</v>
       </c>
@@ -7706,7 +7699,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="41">
         <v>41790</v>
       </c>
@@ -7730,7 +7723,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="41">
         <v>41820</v>
       </c>
@@ -7756,7 +7749,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="41"/>
       <c r="B262" s="20" t="s">
         <v>151</v>
@@ -7776,7 +7769,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="49"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="41">
         <v>41851</v>
       </c>
@@ -7802,7 +7795,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="41"/>
       <c r="B264" s="20" t="s">
         <v>163</v>
@@ -7811,7 +7804,7 @@
       <c r="D264" s="40"/>
       <c r="E264" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="13" t="str">
@@ -7821,14 +7814,14 @@
       <c r="H264" s="40"/>
       <c r="I264" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J264" s="11"/>
       <c r="K264" s="49" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="41"/>
       <c r="B265" s="20" t="s">
         <v>250</v>
@@ -7839,7 +7832,7 @@
       </c>
       <c r="E265" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="13" t="str">
@@ -7849,12 +7842,12 @@
       <c r="H265" s="40"/>
       <c r="I265" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J265" s="11"/>
       <c r="K265" s="49"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="41">
         <v>41882</v>
       </c>
@@ -7880,7 +7873,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="41"/>
       <c r="B267" s="20" t="s">
         <v>251</v>
@@ -7891,7 +7884,7 @@
       </c>
       <c r="E267" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="13" t="str">
@@ -7901,12 +7894,12 @@
       <c r="H267" s="40"/>
       <c r="I267" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J267" s="11"/>
       <c r="K267" s="49"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="41">
         <v>41912</v>
       </c>
@@ -7932,7 +7925,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="41"/>
       <c r="B269" s="20" t="s">
         <v>252</v>
@@ -7943,7 +7936,7 @@
       </c>
       <c r="E269" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="13" t="str">
@@ -7953,12 +7946,12 @@
       <c r="H269" s="40"/>
       <c r="I269" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="41">
         <v>41943</v>
       </c>
@@ -7984,7 +7977,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="41"/>
       <c r="B271" s="20" t="s">
         <v>254</v>
@@ -7995,7 +7988,7 @@
       </c>
       <c r="E271" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
@@ -8005,12 +7998,12 @@
       <c r="H271" s="40"/>
       <c r="I271" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="41">
         <v>41973</v>
       </c>
@@ -8034,7 +8027,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="41">
         <v>42004</v>
       </c>
@@ -8058,7 +8051,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="53" t="s">
         <v>59</v>
       </c>
@@ -8076,7 +8069,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="41">
         <v>42005</v>
       </c>
@@ -8100,7 +8093,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="41"/>
       <c r="B276" s="20" t="s">
         <v>258</v>
@@ -8120,7 +8113,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="49"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="41">
         <v>42063</v>
       </c>
@@ -8144,7 +8137,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="41">
         <v>42094</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="41"/>
       <c r="B279" s="20" t="s">
         <v>91</v>
@@ -8190,7 +8183,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="41"/>
       <c r="B280" s="20" t="s">
         <v>261</v>
@@ -8210,7 +8203,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="41">
         <v>42124</v>
       </c>
@@ -8236,7 +8229,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="41"/>
       <c r="B282" s="20" t="s">
         <v>263</v>
@@ -8256,7 +8249,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="41">
         <v>42155</v>
       </c>
@@ -8282,7 +8275,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="41"/>
       <c r="B284" s="20" t="s">
         <v>163</v>
@@ -8302,7 +8295,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="41"/>
       <c r="B285" s="20" t="s">
         <v>267</v>
@@ -8322,7 +8315,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="41">
         <v>42185</v>
       </c>
@@ -8346,7 +8339,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="41">
         <v>42216</v>
       </c>
@@ -8372,7 +8365,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="41"/>
       <c r="B288" s="20" t="s">
         <v>246</v>
@@ -8383,7 +8376,7 @@
       </c>
       <c r="E288" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>133.07199999999989</v>
+        <v>135.57199999999989</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="13" t="str">
@@ -8393,12 +8386,12 @@
       <c r="H288" s="40"/>
       <c r="I288" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>147.58299999999997</v>
+        <v>150.08299999999997</v>
       </c>
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="41">
         <v>42247</v>
       </c>
@@ -8422,7 +8415,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="41">
         <v>42277</v>
       </c>
@@ -8448,7 +8441,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="41">
         <v>42308</v>
       </c>
@@ -8472,7 +8465,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="41">
         <v>42338</v>
       </c>
@@ -8498,7 +8491,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="41"/>
       <c r="B293" s="20" t="s">
         <v>208</v>
@@ -8518,7 +8511,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="49"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="41">
         <v>42369</v>
       </c>
@@ -8542,7 +8535,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="53" t="s">
         <v>60</v>
       </c>
@@ -8560,7 +8553,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="41">
         <v>42370</v>
       </c>
@@ -8584,7 +8577,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="41"/>
       <c r="B297" s="20" t="s">
         <v>274</v>
@@ -8604,7 +8597,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="41">
         <v>42428</v>
       </c>
@@ -8628,7 +8621,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <v>42460</v>
       </c>
@@ -8654,7 +8647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="41"/>
       <c r="B300" s="20" t="s">
         <v>276</v>
@@ -8674,7 +8667,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="49"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="41">
         <v>42490</v>
       </c>
@@ -8698,7 +8691,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="41">
         <v>42521</v>
       </c>
@@ -8722,7 +8715,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <v>42551</v>
       </c>
@@ -8746,7 +8739,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41"/>
       <c r="B304" s="20" t="s">
         <v>279</v>
@@ -8763,7 +8756,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="49"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <v>42582</v>
       </c>
@@ -8789,7 +8782,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="41"/>
       <c r="B306" s="20" t="s">
         <v>281</v>
@@ -8809,7 +8802,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="49"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="41">
         <v>42613</v>
       </c>
@@ -8833,7 +8826,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="41">
         <v>42643</v>
       </c>
@@ -8859,7 +8852,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="42"/>
       <c r="B309" s="15" t="s">
         <v>163</v>
@@ -8879,7 +8872,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="42"/>
       <c r="B310" s="15" t="s">
         <v>285</v>
@@ -8899,7 +8892,7 @@
       <c r="J310" s="12"/>
       <c r="K310" s="51"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="42">
         <v>42674</v>
       </c>
@@ -8925,7 +8918,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="42"/>
       <c r="B312" s="15" t="s">
         <v>287</v>
@@ -8945,7 +8938,7 @@
       <c r="J312" s="12"/>
       <c r="K312" s="51"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="42">
         <v>42704</v>
       </c>
@@ -8971,7 +8964,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>42735</v>
       </c>
@@ -8991,7 +8984,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="53" t="s">
         <v>61</v>
       </c>
@@ -9009,7 +9002,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="41">
         <v>42766</v>
       </c>
@@ -9035,7 +9028,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="41"/>
       <c r="B317" s="20" t="s">
         <v>98</v>
@@ -9057,7 +9050,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="41"/>
       <c r="B318" s="20" t="s">
         <v>290</v>
@@ -9077,7 +9070,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="41">
         <v>42794</v>
       </c>
@@ -9101,7 +9094,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="41">
         <v>42825</v>
       </c>
@@ -9125,7 +9118,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="41"/>
       <c r="B321" s="20" t="s">
         <v>293</v>
@@ -9145,7 +9138,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="41">
         <v>42855</v>
       </c>
@@ -9171,7 +9164,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="41"/>
       <c r="B323" s="20" t="s">
         <v>294</v>
@@ -9193,7 +9186,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="41"/>
       <c r="B324" s="20" t="s">
         <v>119</v>
@@ -9213,7 +9206,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="41">
         <v>42886</v>
       </c>
@@ -9233,7 +9226,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="41">
         <v>42916</v>
       </c>
@@ -9253,7 +9246,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="41">
         <v>42947</v>
       </c>
@@ -9277,7 +9270,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="41"/>
       <c r="B328" s="20" t="s">
         <v>68</v>
@@ -9299,7 +9292,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="41"/>
       <c r="B329" s="20" t="s">
         <v>98</v>
@@ -9321,7 +9314,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="41"/>
       <c r="B330" s="20" t="s">
         <v>299</v>
@@ -9341,7 +9334,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="41">
         <v>42978</v>
       </c>
@@ -9367,7 +9360,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="41">
         <v>43008</v>
       </c>
@@ -9391,7 +9384,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="41">
         <v>43039</v>
       </c>
@@ -9415,7 +9408,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="41">
         <v>43069</v>
       </c>
@@ -9435,7 +9428,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="41">
         <v>43100</v>
       </c>
@@ -9461,7 +9454,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="41"/>
       <c r="B336" s="20" t="s">
         <v>91</v>
@@ -9481,7 +9474,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="49"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="53" t="s">
         <v>62</v>
       </c>
@@ -9499,7 +9492,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="41">
         <v>43131</v>
       </c>
@@ -9525,7 +9518,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <v>43159</v>
       </c>
@@ -9545,7 +9538,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="41">
         <v>43190</v>
       </c>
@@ -9565,7 +9558,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="41">
         <v>43220</v>
       </c>
@@ -9585,7 +9578,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="41">
         <v>43251</v>
       </c>
@@ -9605,7 +9598,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="41">
         <v>43281</v>
       </c>
@@ -9625,7 +9618,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="41">
         <v>43312</v>
       </c>
@@ -9649,7 +9642,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41">
         <v>43343</v>
       </c>
@@ -9675,7 +9668,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="41">
         <v>43373</v>
       </c>
@@ -9701,7 +9694,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="41">
         <v>43404</v>
       </c>
@@ -9721,7 +9714,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="41">
         <v>43434</v>
       </c>
@@ -9741,7 +9734,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="41">
         <v>43465</v>
       </c>
@@ -9765,7 +9758,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="53" t="s">
         <v>63</v>
       </c>
@@ -9783,7 +9776,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="41">
         <v>43496</v>
       </c>
@@ -9809,7 +9802,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="41"/>
       <c r="B352" s="20" t="s">
         <v>163</v>
@@ -9829,7 +9822,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="41">
         <v>43524</v>
       </c>
@@ -9849,7 +9842,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="41">
         <v>43555</v>
       </c>
@@ -9875,7 +9868,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="41"/>
       <c r="B355" s="20" t="s">
         <v>142</v>
@@ -9895,7 +9888,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="41">
         <v>43585</v>
       </c>
@@ -9915,7 +9908,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="41">
         <v>43616</v>
       </c>
@@ -9935,7 +9928,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>43646</v>
       </c>
@@ -9955,7 +9948,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="41">
         <v>43677</v>
       </c>
@@ -9975,7 +9968,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="41">
         <v>43708</v>
       </c>
@@ -9995,7 +9988,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="41">
         <v>43738</v>
       </c>
@@ -10015,7 +10008,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="41">
         <v>43769</v>
       </c>
@@ -10041,7 +10034,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="41">
         <v>43799</v>
       </c>
@@ -10061,7 +10054,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="41">
         <v>43830</v>
       </c>
@@ -10085,7 +10078,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="53" t="s">
         <v>64</v>
       </c>
@@ -10103,7 +10096,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="41">
         <v>43861</v>
       </c>
@@ -10123,7 +10116,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="41">
         <v>43889</v>
       </c>
@@ -10143,7 +10136,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="41">
         <v>43921</v>
       </c>
@@ -10163,7 +10156,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="41">
         <v>43951</v>
       </c>
@@ -10183,7 +10176,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="41">
         <v>43982</v>
       </c>
@@ -10203,7 +10196,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="41">
         <v>44012</v>
       </c>
@@ -10223,7 +10216,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="41">
         <v>44043</v>
       </c>
@@ -10243,7 +10236,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="41">
         <v>44074</v>
       </c>
@@ -10263,7 +10256,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="41">
         <v>44104</v>
       </c>
@@ -10283,7 +10276,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="41">
         <v>44135</v>
       </c>
@@ -10303,7 +10296,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="41">
         <v>44165</v>
       </c>
@@ -10323,7 +10316,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="41">
         <v>44196</v>
       </c>
@@ -10347,7 +10340,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="53" t="s">
         <v>65</v>
       </c>
@@ -10365,7 +10358,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="41">
         <v>44227</v>
       </c>
@@ -10389,7 +10382,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="41">
         <v>44255</v>
       </c>
@@ -10409,7 +10402,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="41">
         <v>44286</v>
       </c>
@@ -10429,7 +10422,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="41">
         <v>44316</v>
       </c>
@@ -10449,7 +10442,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="41">
         <v>44347</v>
       </c>
@@ -10475,7 +10468,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="41">
         <v>44377</v>
       </c>
@@ -10495,7 +10488,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="41">
         <v>44408</v>
       </c>
@@ -10515,7 +10508,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="41">
         <v>44439</v>
       </c>
@@ -10535,7 +10528,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="41">
         <v>44469</v>
       </c>
@@ -10555,7 +10548,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="41">
         <v>44500</v>
       </c>
@@ -10575,7 +10568,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="41">
         <v>44530</v>
       </c>
@@ -10601,7 +10594,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="41"/>
       <c r="B390" s="20" t="s">
         <v>132</v>
@@ -10623,7 +10616,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="41">
         <v>44561</v>
       </c>
@@ -10647,7 +10640,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="53" t="s">
         <v>66</v>
       </c>
@@ -10665,7 +10658,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="41">
         <v>44562</v>
       </c>
@@ -10689,7 +10682,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="41">
         <v>44620</v>
       </c>
@@ -10709,7 +10702,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="41">
         <v>44651</v>
       </c>
@@ -10733,7 +10726,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41">
         <v>44681</v>
       </c>
@@ -10757,7 +10750,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="41">
         <v>44712</v>
       </c>
@@ -10777,7 +10770,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="41">
         <v>44742</v>
       </c>
@@ -10797,7 +10790,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="41">
         <v>44773</v>
       </c>
@@ -10817,7 +10810,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>44804</v>
       </c>
@@ -10843,7 +10836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="41"/>
       <c r="B401" s="20" t="s">
         <v>205</v>
@@ -10863,7 +10856,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="49"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="41">
         <v>44834</v>
       </c>
@@ -10883,7 +10876,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="41">
         <v>44865</v>
       </c>
@@ -10909,7 +10902,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="41">
         <v>44895</v>
       </c>
@@ -10935,7 +10928,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="41"/>
       <c r="B405" s="20" t="s">
         <v>136</v>
@@ -10957,7 +10950,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23" t="s">
         <v>328</v>
       </c>
@@ -10977,7 +10970,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="53" t="s">
         <v>329</v>
       </c>
@@ -10995,9 +10988,9 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="23" t="s">
-        <v>330</v>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408" s="23">
+        <v>44957</v>
       </c>
       <c r="B408" s="20" t="s">
         <v>98</v>
@@ -11018,12 +11011,12 @@
       <c r="I408" s="9"/>
       <c r="J408" s="11"/>
       <c r="K408" s="49" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="41">
-        <v>44958</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409" s="23">
+        <v>44985</v>
       </c>
       <c r="B409" s="20"/>
       <c r="C409" s="13">
@@ -11041,9 +11034,9 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="41">
-        <v>44986</v>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410" s="23">
+        <v>45016</v>
       </c>
       <c r="B410" s="20"/>
       <c r="C410" s="13">
@@ -11061,9 +11054,9 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="41">
-        <v>45017</v>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411" s="23">
+        <v>45046</v>
       </c>
       <c r="B411" s="20" t="s">
         <v>163</v>
@@ -11081,44 +11074,54 @@
       <c r="H411" s="40"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
-      <c r="K411" s="65">
+      <c r="K411" s="54">
         <v>45048</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="41"/>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412" s="23">
+        <v>45077</v>
+      </c>
       <c r="B412" s="20"/>
-      <c r="C412" s="13"/>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D412" s="40"/>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="40"/>
       <c r="I412" s="9"/>
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="41"/>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413" s="23">
+        <v>45107</v>
+      </c>
       <c r="B413" s="20"/>
-      <c r="C413" s="13"/>
+      <c r="C413" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D413" s="40"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G413" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H413" s="40"/>
       <c r="I413" s="9"/>
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="41"/>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414" s="23">
+        <v>45138</v>
+      </c>
       <c r="B414" s="20"/>
       <c r="C414" s="13"/>
       <c r="D414" s="40"/>
@@ -11133,8 +11136,10 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="41"/>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415" s="23">
+        <v>45169</v>
+      </c>
       <c r="B415" s="20"/>
       <c r="C415" s="13"/>
       <c r="D415" s="40"/>
@@ -11149,8 +11154,10 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="41"/>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416" s="23">
+        <v>45199</v>
+      </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
       <c r="D416" s="40"/>
@@ -11165,8 +11172,10 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="41"/>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417" s="23">
+        <v>45230</v>
+      </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
       <c r="D417" s="40"/>
@@ -11181,8 +11190,10 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="41"/>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418" s="23">
+        <v>45260</v>
+      </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
       <c r="D418" s="40"/>
@@ -11197,8 +11208,10 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="41"/>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419" s="23">
+        <v>45291</v>
+      </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
       <c r="D419" s="40"/>
@@ -11213,8 +11226,10 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="41"/>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="23">
+        <v>45322</v>
+      </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
       <c r="D420" s="40"/>
@@ -11229,8 +11244,10 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="41"/>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="23">
+        <v>45351</v>
+      </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
       <c r="D421" s="40"/>
@@ -11245,7 +11262,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="41"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11261,7 +11278,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="41"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11277,7 +11294,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="41"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11293,7 +11310,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="41"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11309,7 +11326,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="41"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11325,7 +11342,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="41"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11341,7 +11358,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="41"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11357,7 +11374,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="41"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11373,7 +11390,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="41"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11389,7 +11406,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="41"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11405,7 +11422,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="41"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11421,7 +11438,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="41"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11437,7 +11454,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="41"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11453,7 +11470,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="41"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11469,7 +11486,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="41"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11485,7 +11502,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="41"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11501,7 +11518,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="41"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11517,7 +11534,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="41"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11533,7 +11550,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="41"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11549,7 +11566,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="41"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11565,7 +11582,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="41"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11581,7 +11598,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="41"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11597,7 +11614,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="41"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11613,7 +11630,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="41"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11629,7 +11646,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="41"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11645,7 +11662,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="41"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11661,7 +11678,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="41"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11677,7 +11694,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="41"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11693,7 +11710,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="41"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11709,7 +11726,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="41"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11725,7 +11742,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="41"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11741,7 +11758,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="41"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11757,7 +11774,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="41"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11773,7 +11790,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="41"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11789,7 +11806,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="41"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11805,7 +11822,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="41"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11821,7 +11838,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="41"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11837,7 +11854,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="41"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11853,7 +11870,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="41"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11869,7 +11886,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="41"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11882,7 +11899,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="41"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11895,7 +11912,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="41"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11908,7 +11925,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="41"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11921,7 +11938,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="42"/>
       <c r="B465" s="15"/>
       <c r="C465" s="43"/>
@@ -11948,11 +11965,12 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11975,41 +11993,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12038,7 +12056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12060,7 +12078,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -12075,10 +12093,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -12091,14 +12109,14 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -12124,7 +12142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -12150,7 +12168,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -12176,7 +12194,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -12202,7 +12220,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -12228,7 +12246,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -12254,7 +12272,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12280,7 +12298,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12306,7 +12324,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12326,7 +12344,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12346,7 +12364,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12366,7 +12384,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12387,7 +12405,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12408,7 +12426,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12429,7 +12447,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12450,7 +12468,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12471,7 +12489,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12492,7 +12510,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12513,7 +12531,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12534,7 +12552,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12555,7 +12573,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12576,7 +12594,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12597,7 +12615,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12618,7 +12636,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12639,7 +12657,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12660,7 +12678,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12681,7 +12699,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12702,7 +12720,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12723,7 +12741,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12744,7 +12762,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12765,7 +12783,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12786,7 +12804,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12795,7 +12813,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12804,7 +12822,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12813,7 +12831,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12822,7 +12840,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12831,7 +12849,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12840,7 +12858,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12849,7 +12867,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12858,7 +12876,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12867,7 +12885,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12876,7 +12894,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12885,7 +12903,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12894,7 +12912,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12903,7 +12921,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12912,7 +12930,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12921,7 +12939,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12930,7 +12948,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12939,7 +12957,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12948,7 +12966,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12957,7 +12975,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12966,7 +12984,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12975,7 +12993,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -12984,7 +13002,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -12993,7 +13011,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -13002,7 +13020,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -13011,7 +13029,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -13020,7 +13038,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -13029,7 +13047,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -13038,7 +13056,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -13047,7 +13065,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/PAYAD, MARICEL QUILAO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D71C102-BF54-4865-AFC2-43F6A8120C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="333">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1038,7 +1037,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1734,7 +1733,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1751,25 +1750,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K465" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2076,34 +2075,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K465"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A408" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A399" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="C415" sqref="C415"/>
+      <selection pane="bottomLeft" activeCell="H415" sqref="H415"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2124,7 +2123,7 @@
       <c r="J2" s="57"/>
       <c r="K2" s="58"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2145,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2176,7 +2175,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2189,7 +2188,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="55" t="s">
@@ -2206,7 +2205,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2265,7 +2264,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
         <v>43</v>
       </c>
@@ -2287,7 +2286,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>37181</v>
       </c>
@@ -2307,7 +2306,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>44</v>
       </c>
@@ -2327,7 +2326,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>37256</v>
       </c>
@@ -2347,7 +2346,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>45</v>
       </c>
@@ -2369,7 +2368,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>37287</v>
       </c>
@@ -2389,7 +2388,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>37315</v>
       </c>
@@ -2409,7 +2408,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>37346</v>
       </c>
@@ -2429,7 +2428,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>37376</v>
       </c>
@@ -2449,7 +2448,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>37407</v>
       </c>
@@ -2469,7 +2468,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>37437</v>
       </c>
@@ -2489,7 +2488,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>37468</v>
       </c>
@@ -2509,7 +2508,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>37499</v>
       </c>
@@ -2529,7 +2528,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>37529</v>
       </c>
@@ -2549,7 +2548,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>37560</v>
       </c>
@@ -2569,7 +2568,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>37590</v>
       </c>
@@ -2589,7 +2588,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>37621</v>
       </c>
@@ -2613,7 +2612,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
         <v>46</v>
       </c>
@@ -2635,7 +2634,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>37652</v>
       </c>
@@ -2655,7 +2654,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>37680</v>
       </c>
@@ -2675,7 +2674,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>37711</v>
       </c>
@@ -2695,7 +2694,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>37741</v>
       </c>
@@ -2715,7 +2714,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>37772</v>
       </c>
@@ -2735,7 +2734,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>37802</v>
       </c>
@@ -2755,7 +2754,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>37833</v>
       </c>
@@ -2775,7 +2774,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>37864</v>
       </c>
@@ -2795,7 +2794,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>37894</v>
       </c>
@@ -2815,7 +2814,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>37925</v>
       </c>
@@ -2835,7 +2834,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>37955</v>
       </c>
@@ -2855,7 +2854,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>37986</v>
       </c>
@@ -2879,7 +2878,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="53" t="s">
         <v>47</v>
       </c>
@@ -2901,7 +2900,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>38017</v>
       </c>
@@ -2921,7 +2920,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>38045</v>
       </c>
@@ -2941,7 +2940,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>38077</v>
       </c>
@@ -2961,7 +2960,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>38107</v>
       </c>
@@ -2981,7 +2980,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>38138</v>
       </c>
@@ -3001,7 +3000,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>38168</v>
       </c>
@@ -3021,7 +3020,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>38199</v>
       </c>
@@ -3047,7 +3046,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>38230</v>
       </c>
@@ -3067,7 +3066,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>38260</v>
       </c>
@@ -3087,7 +3086,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>38291</v>
       </c>
@@ -3107,7 +3106,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>38321</v>
       </c>
@@ -3127,7 +3126,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>38352</v>
       </c>
@@ -3151,7 +3150,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="53" t="s">
         <v>48</v>
       </c>
@@ -3173,7 +3172,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>38383</v>
       </c>
@@ -3193,7 +3192,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>38411</v>
       </c>
@@ -3213,7 +3212,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>38442</v>
       </c>
@@ -3233,7 +3232,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>38472</v>
       </c>
@@ -3257,7 +3256,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>38503</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>38533</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>38564</v>
       </c>
@@ -3317,7 +3316,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>38595</v>
       </c>
@@ -3337,7 +3336,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>38625</v>
       </c>
@@ -3357,7 +3356,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>38656</v>
       </c>
@@ -3377,7 +3376,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>38686</v>
       </c>
@@ -3397,7 +3396,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>38717</v>
       </c>
@@ -3421,7 +3420,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>49</v>
       </c>
@@ -3443,7 +3442,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>38748</v>
       </c>
@@ -3463,7 +3462,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>38776</v>
       </c>
@@ -3483,7 +3482,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>38807</v>
       </c>
@@ -3503,7 +3502,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>38837</v>
       </c>
@@ -3523,7 +3522,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>38868</v>
       </c>
@@ -3543,7 +3542,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>38898</v>
       </c>
@@ -3563,7 +3562,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>38929</v>
       </c>
@@ -3583,7 +3582,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>38960</v>
       </c>
@@ -3603,7 +3602,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>38990</v>
       </c>
@@ -3623,7 +3622,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>39021</v>
       </c>
@@ -3643,7 +3642,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>39051</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>39082</v>
       </c>
@@ -3687,7 +3686,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="53" t="s">
         <v>50</v>
       </c>
@@ -3709,7 +3708,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>39113</v>
       </c>
@@ -3729,7 +3728,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>39141</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>39172</v>
       </c>
@@ -3769,7 +3768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>39202</v>
       </c>
@@ -3789,7 +3788,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="49"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>39233</v>
       </c>
@@ -3809,7 +3808,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>39263</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>39294</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="20" t="s">
         <v>80</v>
@@ -3879,7 +3878,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="49"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41">
         <v>39325</v>
       </c>
@@ -3903,7 +3902,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>39355</v>
       </c>
@@ -3927,7 +3926,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>39386</v>
       </c>
@@ -3951,7 +3950,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="49"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20" t="s">
         <v>84</v>
@@ -3971,7 +3970,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>39416</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>68</v>
@@ -4019,7 +4018,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20" t="s">
         <v>68</v>
@@ -4041,7 +4040,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20" t="s">
         <v>89</v>
@@ -4061,7 +4060,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>39447</v>
       </c>
@@ -4085,7 +4084,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="53" t="s">
         <v>51</v>
       </c>
@@ -4107,7 +4106,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>39478</v>
       </c>
@@ -4127,7 +4126,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>39506</v>
       </c>
@@ -4147,7 +4146,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>39538</v>
       </c>
@@ -4167,7 +4166,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>39568</v>
       </c>
@@ -4187,7 +4186,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>39599</v>
       </c>
@@ -4207,7 +4206,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>39629</v>
       </c>
@@ -4227,7 +4226,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>39660</v>
       </c>
@@ -4247,7 +4246,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>39691</v>
       </c>
@@ -4267,7 +4266,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41" t="s">
         <v>52</v>
       </c>
@@ -4287,7 +4286,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>39752</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="41">
         <v>39782</v>
       </c>
@@ -4327,7 +4326,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="41">
         <v>39813</v>
       </c>
@@ -4351,7 +4350,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="53" t="s">
         <v>53</v>
       </c>
@@ -4373,7 +4372,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="41">
         <v>39844</v>
       </c>
@@ -4399,7 +4398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="41"/>
       <c r="B112" s="20" t="s">
         <v>94</v>
@@ -4419,7 +4418,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="41"/>
       <c r="B113" s="20" t="s">
         <v>96</v>
@@ -4439,7 +4438,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="49"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="41">
         <v>39872</v>
       </c>
@@ -4463,7 +4462,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="41">
         <v>39903</v>
       </c>
@@ -4489,7 +4488,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="41"/>
       <c r="B116" s="20" t="s">
         <v>100</v>
@@ -4509,7 +4508,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="49"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="41">
         <v>39933</v>
       </c>
@@ -4533,7 +4532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="41"/>
       <c r="B118" s="20" t="s">
         <v>102</v>
@@ -4553,7 +4552,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="41"/>
       <c r="B119" s="20" t="s">
         <v>103</v>
@@ -4573,7 +4572,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="41">
         <v>39964</v>
       </c>
@@ -4599,7 +4598,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="41"/>
       <c r="B121" s="20" t="s">
         <v>92</v>
@@ -4621,7 +4620,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="41"/>
       <c r="B122" s="20" t="s">
         <v>107</v>
@@ -4643,7 +4642,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="41"/>
       <c r="B123" s="20" t="s">
         <v>109</v>
@@ -4669,7 +4668,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="41">
         <v>39994</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="41"/>
       <c r="B125" s="20" t="s">
         <v>111</v>
@@ -4715,7 +4714,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="49"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="41">
         <v>40025</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="20" t="s">
         <v>92</v>
@@ -4763,7 +4762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="41" t="s">
         <v>115</v>
@@ -4789,7 +4788,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="49"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41">
         <v>40056</v>
       </c>
@@ -4815,7 +4814,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="20" t="s">
         <v>117</v>
@@ -4835,7 +4834,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="49"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="41">
         <v>40086</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="20" t="s">
         <v>119</v>
@@ -4879,7 +4878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41">
         <v>40117</v>
       </c>
@@ -4899,7 +4898,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41">
         <v>40147</v>
       </c>
@@ -4923,7 +4922,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="41"/>
       <c r="B135" s="20" t="s">
         <v>124</v>
@@ -4943,7 +4942,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="49"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>125</v>
       </c>
@@ -4963,7 +4962,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="49"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>68</v>
@@ -4985,7 +4984,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>54</v>
       </c>
@@ -5007,7 +5006,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>40209</v>
       </c>
@@ -5033,7 +5032,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="41"/>
       <c r="B140" s="20" t="s">
         <v>98</v>
@@ -5055,7 +5054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="20" t="s">
         <v>129</v>
@@ -5075,7 +5074,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="49"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41">
         <v>40237</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="41"/>
       <c r="B143" s="20" t="s">
         <v>112</v>
@@ -5123,7 +5122,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="41"/>
       <c r="B144" s="20" t="s">
         <v>132</v>
@@ -5145,7 +5144,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
       <c r="B145" s="20" t="s">
         <v>134</v>
@@ -5165,7 +5164,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="50"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="41">
         <v>40268</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="41"/>
       <c r="B147" s="20" t="s">
         <v>136</v>
@@ -5213,7 +5212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="41"/>
       <c r="B148" s="20" t="s">
         <v>122</v>
@@ -5235,7 +5234,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="41"/>
       <c r="B149" s="20" t="s">
         <v>139</v>
@@ -5257,7 +5256,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="41"/>
       <c r="B150" s="20" t="s">
         <v>102</v>
@@ -5277,7 +5276,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="20" t="s">
         <v>141</v>
@@ -5297,7 +5296,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="50"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="41">
         <v>40298</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="41"/>
       <c r="B153" s="20" t="s">
         <v>139</v>
@@ -5343,7 +5342,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="41">
         <v>40329</v>
       </c>
@@ -5367,7 +5366,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="41"/>
       <c r="B155" s="20" t="s">
         <v>136</v>
@@ -5387,7 +5386,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="41"/>
       <c r="B156" s="20" t="s">
         <v>145</v>
@@ -5407,7 +5406,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="41"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -5429,7 +5428,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="41">
         <v>40359</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="41"/>
       <c r="B159" s="41" t="s">
         <v>149</v>
@@ -5475,7 +5474,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="49"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="41">
         <v>40390</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="20" t="s">
         <v>151</v>
@@ -5521,7 +5520,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="49"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="41">
         <v>40421</v>
       </c>
@@ -5545,7 +5544,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="41">
         <v>40451</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="41"/>
       <c r="B164" s="20" t="s">
         <v>132</v>
@@ -5590,7 +5589,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="41"/>
       <c r="B165" s="20" t="s">
         <v>68</v>
@@ -5605,7 +5604,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="49"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="41"/>
       <c r="B166" s="20" t="s">
         <v>156</v>
@@ -5625,7 +5624,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="49"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="41">
         <v>40482</v>
       </c>
@@ -5651,7 +5650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="41"/>
       <c r="B168" s="20" t="s">
         <v>158</v>
@@ -5671,7 +5670,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="49"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="41">
         <v>40512</v>
       </c>
@@ -5691,7 +5690,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <v>40543</v>
       </c>
@@ -5715,7 +5714,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="53" t="s">
         <v>55</v>
       </c>
@@ -5733,7 +5732,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="42">
         <v>40574</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="42"/>
       <c r="B173" s="20" t="s">
         <v>92</v>
@@ -5781,7 +5780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="42"/>
       <c r="B174" s="20" t="s">
         <v>162</v>
@@ -5801,7 +5800,7 @@
       <c r="J174" s="12"/>
       <c r="K174" s="51"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41">
         <v>40602</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="41">
         <v>40633</v>
       </c>
@@ -5845,7 +5844,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="41">
         <v>40663</v>
       </c>
@@ -5869,7 +5868,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="41"/>
       <c r="B178" s="20" t="s">
         <v>98</v>
@@ -5891,7 +5890,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="41"/>
       <c r="B179" s="20" t="s">
         <v>68</v>
@@ -5913,7 +5912,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="41"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -5935,7 +5934,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="41"/>
       <c r="B181" s="20" t="s">
         <v>68</v>
@@ -5957,7 +5956,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="41"/>
       <c r="B182" s="20" t="s">
         <v>169</v>
@@ -5977,7 +5976,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="48"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="41">
         <v>40694</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="41"/>
       <c r="B184" s="20" t="s">
         <v>171</v>
@@ -6023,7 +6022,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="49"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="41">
         <v>40724</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="41"/>
       <c r="B186" s="20" t="s">
         <v>173</v>
@@ -6069,7 +6068,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="49"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="41">
         <v>40755</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="41">
         <v>40786</v>
       </c>
@@ -6115,7 +6114,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="41">
         <v>40816</v>
       </c>
@@ -6139,7 +6138,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="20" t="s">
         <v>176</v>
@@ -6159,7 +6158,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="49"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="41">
         <v>40847</v>
       </c>
@@ -6185,7 +6184,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="41"/>
       <c r="B192" s="20" t="s">
         <v>178</v>
@@ -6205,7 +6204,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="49"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="41">
         <v>40877</v>
       </c>
@@ -6231,7 +6230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="41"/>
       <c r="B194" s="20" t="s">
         <v>179</v>
@@ -6253,7 +6252,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="20" t="s">
         <v>181</v>
@@ -6273,7 +6272,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="49"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="41">
         <v>40908</v>
       </c>
@@ -6297,7 +6296,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="53" t="s">
         <v>56</v>
       </c>
@@ -6315,7 +6314,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>40909</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="41"/>
       <c r="B199" s="20" t="s">
         <v>184</v>
@@ -6361,7 +6360,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="49"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="41">
         <v>40967</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="41"/>
       <c r="B201" s="20" t="s">
         <v>163</v>
@@ -6407,7 +6406,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="41"/>
       <c r="B202" s="20" t="s">
         <v>187</v>
@@ -6427,7 +6426,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="49"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="41">
         <v>40999</v>
       </c>
@@ -6453,7 +6452,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="41"/>
       <c r="B204" s="20" t="s">
         <v>189</v>
@@ -6473,7 +6472,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="49"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="41">
         <v>41029</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41"/>
       <c r="B206" s="20" t="s">
         <v>192</v>
@@ -6519,7 +6518,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="49"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="41">
         <v>41060</v>
       </c>
@@ -6545,7 +6544,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="41"/>
       <c r="B208" s="20" t="s">
         <v>68</v>
@@ -6567,7 +6566,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="41"/>
       <c r="B209" s="20" t="s">
         <v>98</v>
@@ -6589,7 +6588,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="41"/>
       <c r="B210" s="20" t="s">
         <v>195</v>
@@ -6609,7 +6608,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="49"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="41">
         <v>41090</v>
       </c>
@@ -6633,7 +6632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="41"/>
       <c r="B212" s="20" t="s">
         <v>198</v>
@@ -6655,7 +6654,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="41"/>
       <c r="B213" s="20" t="s">
         <v>200</v>
@@ -6675,7 +6674,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="49"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="41"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6691,7 +6690,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="49"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="41">
         <v>41121</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="41"/>
       <c r="B216" s="20" t="s">
         <v>201</v>
@@ -6737,7 +6736,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="49"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="41">
         <v>41152</v>
       </c>
@@ -6763,7 +6762,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="41"/>
       <c r="B218" s="20" t="s">
         <v>203</v>
@@ -6783,7 +6782,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="49"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="41">
         <v>41182</v>
       </c>
@@ -6807,7 +6806,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="20" t="s">
         <v>205</v>
@@ -6829,7 +6828,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="41"/>
       <c r="B221" s="20" t="s">
         <v>68</v>
@@ -6851,7 +6850,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="41"/>
       <c r="B222" s="20" t="s">
         <v>208</v>
@@ -6871,7 +6870,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="49"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="41">
         <v>41213</v>
       </c>
@@ -6895,7 +6894,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="41">
         <v>41243</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="41"/>
       <c r="B225" s="20" t="s">
         <v>211</v>
@@ -6941,7 +6940,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="49"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="41">
         <v>41274</v>
       </c>
@@ -6965,7 +6964,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="53" t="s">
         <v>57</v>
       </c>
@@ -6983,7 +6982,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="41">
         <v>41275</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="41"/>
       <c r="B229" s="20" t="s">
         <v>163</v>
@@ -7027,7 +7026,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="41"/>
       <c r="B230" s="20" t="s">
         <v>214</v>
@@ -7047,7 +7046,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="49"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="41">
         <v>41306</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="41"/>
       <c r="B232" s="20" t="s">
         <v>216</v>
@@ -7093,7 +7092,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="49"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="41">
         <v>41364</v>
       </c>
@@ -7117,7 +7116,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="41"/>
       <c r="B234" s="20" t="s">
         <v>219</v>
@@ -7137,7 +7136,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="49"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="41">
         <v>41394</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41"/>
       <c r="B236" s="20" t="s">
         <v>221</v>
@@ -7183,7 +7182,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="49"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <v>41425</v>
       </c>
@@ -7209,7 +7208,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="41"/>
       <c r="B238" s="20" t="s">
         <v>223</v>
@@ -7229,7 +7228,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="49"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="41">
         <v>41455</v>
       </c>
@@ -7253,7 +7252,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <v>41486</v>
       </c>
@@ -7279,7 +7278,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="41"/>
       <c r="B241" s="20" t="s">
         <v>226</v>
@@ -7299,7 +7298,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="49"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <v>41517</v>
       </c>
@@ -7319,7 +7318,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="41">
         <v>41547</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>41578</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41"/>
       <c r="B245" s="20" t="s">
         <v>230</v>
@@ -7387,7 +7386,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="49"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="41">
         <v>41608</v>
       </c>
@@ -7411,7 +7410,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <v>41639</v>
       </c>
@@ -7437,7 +7436,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41"/>
       <c r="B248" s="20" t="s">
         <v>232</v>
@@ -7457,7 +7456,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="49"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="53" t="s">
         <v>58</v>
       </c>
@@ -7475,7 +7474,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <v>41670</v>
       </c>
@@ -7501,7 +7500,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41"/>
       <c r="B251" s="20" t="s">
         <v>235</v>
@@ -7521,7 +7520,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="49"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <v>41698</v>
       </c>
@@ -7547,7 +7546,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="41"/>
       <c r="B253" s="20" t="s">
         <v>122</v>
@@ -7569,7 +7568,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="41"/>
       <c r="B254" s="20" t="s">
         <v>142</v>
@@ -7589,7 +7588,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="41"/>
       <c r="B255" s="20" t="s">
         <v>238</v>
@@ -7609,7 +7608,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="49"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="41">
         <v>41729</v>
       </c>
@@ -7635,7 +7634,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="20" t="s">
         <v>243</v>
@@ -7655,7 +7654,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="49"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41"/>
       <c r="B258" s="20" t="s">
         <v>244</v>
@@ -7675,7 +7674,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="49"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="41">
         <v>41759</v>
       </c>
@@ -7699,7 +7698,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="41">
         <v>41790</v>
       </c>
@@ -7723,7 +7722,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="41">
         <v>41820</v>
       </c>
@@ -7749,7 +7748,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="41"/>
       <c r="B262" s="20" t="s">
         <v>151</v>
@@ -7769,7 +7768,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="49"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="41">
         <v>41851</v>
       </c>
@@ -7795,7 +7794,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="41"/>
       <c r="B264" s="20" t="s">
         <v>163</v>
@@ -7821,7 +7820,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="41"/>
       <c r="B265" s="20" t="s">
         <v>250</v>
@@ -7847,7 +7846,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="49"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="41">
         <v>41882</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="41"/>
       <c r="B267" s="20" t="s">
         <v>251</v>
@@ -7899,7 +7898,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="49"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="41">
         <v>41912</v>
       </c>
@@ -7925,7 +7924,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="41"/>
       <c r="B269" s="20" t="s">
         <v>252</v>
@@ -7951,7 +7950,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="41">
         <v>41943</v>
       </c>
@@ -7977,7 +7976,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="41"/>
       <c r="B271" s="20" t="s">
         <v>254</v>
@@ -8003,7 +8002,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="41">
         <v>41973</v>
       </c>
@@ -8027,7 +8026,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="41">
         <v>42004</v>
       </c>
@@ -8051,7 +8050,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="53" t="s">
         <v>59</v>
       </c>
@@ -8069,7 +8068,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="41">
         <v>42005</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="41"/>
       <c r="B276" s="20" t="s">
         <v>258</v>
@@ -8113,7 +8112,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="49"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="41">
         <v>42063</v>
       </c>
@@ -8137,7 +8136,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="41">
         <v>42094</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="41"/>
       <c r="B279" s="20" t="s">
         <v>91</v>
@@ -8183,7 +8182,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="41"/>
       <c r="B280" s="20" t="s">
         <v>261</v>
@@ -8203,7 +8202,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="49"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="41">
         <v>42124</v>
       </c>
@@ -8229,7 +8228,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="41"/>
       <c r="B282" s="20" t="s">
         <v>263</v>
@@ -8249,7 +8248,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="49"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="41">
         <v>42155</v>
       </c>
@@ -8275,7 +8274,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="41"/>
       <c r="B284" s="20" t="s">
         <v>163</v>
@@ -8295,7 +8294,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="41"/>
       <c r="B285" s="20" t="s">
         <v>267</v>
@@ -8315,7 +8314,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="49"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="41">
         <v>42185</v>
       </c>
@@ -8339,7 +8338,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="41">
         <v>42216</v>
       </c>
@@ -8365,7 +8364,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="41"/>
       <c r="B288" s="20" t="s">
         <v>246</v>
@@ -8391,7 +8390,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="41">
         <v>42247</v>
       </c>
@@ -8415,7 +8414,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="41">
         <v>42277</v>
       </c>
@@ -8441,7 +8440,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="41">
         <v>42308</v>
       </c>
@@ -8465,7 +8464,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="41">
         <v>42338</v>
       </c>
@@ -8491,7 +8490,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="41"/>
       <c r="B293" s="20" t="s">
         <v>208</v>
@@ -8511,7 +8510,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="49"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="41">
         <v>42369</v>
       </c>
@@ -8535,7 +8534,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="53" t="s">
         <v>60</v>
       </c>
@@ -8553,7 +8552,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="41">
         <v>42370</v>
       </c>
@@ -8577,7 +8576,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="41"/>
       <c r="B297" s="20" t="s">
         <v>274</v>
@@ -8597,7 +8596,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="49"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="41">
         <v>42428</v>
       </c>
@@ -8621,7 +8620,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="41">
         <v>42460</v>
       </c>
@@ -8647,7 +8646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="41"/>
       <c r="B300" s="20" t="s">
         <v>276</v>
@@ -8667,7 +8666,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="49"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="41">
         <v>42490</v>
       </c>
@@ -8691,7 +8690,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="41">
         <v>42521</v>
       </c>
@@ -8715,7 +8714,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="41">
         <v>42551</v>
       </c>
@@ -8739,7 +8738,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41"/>
       <c r="B304" s="20" t="s">
         <v>279</v>
@@ -8756,7 +8755,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="49"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="41">
         <v>42582</v>
       </c>
@@ -8782,7 +8781,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="41"/>
       <c r="B306" s="20" t="s">
         <v>281</v>
@@ -8802,7 +8801,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="49"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="41">
         <v>42613</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="41">
         <v>42643</v>
       </c>
@@ -8852,7 +8851,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="42"/>
       <c r="B309" s="15" t="s">
         <v>163</v>
@@ -8872,7 +8871,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="42"/>
       <c r="B310" s="15" t="s">
         <v>285</v>
@@ -8892,7 +8891,7 @@
       <c r="J310" s="12"/>
       <c r="K310" s="51"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="42">
         <v>42674</v>
       </c>
@@ -8918,7 +8917,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="42"/>
       <c r="B312" s="15" t="s">
         <v>287</v>
@@ -8938,7 +8937,7 @@
       <c r="J312" s="12"/>
       <c r="K312" s="51"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="42">
         <v>42704</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="41">
         <v>42735</v>
       </c>
@@ -8984,7 +8983,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="53" t="s">
         <v>61</v>
       </c>
@@ -9002,7 +9001,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="41">
         <v>42766</v>
       </c>
@@ -9028,7 +9027,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="41"/>
       <c r="B317" s="20" t="s">
         <v>98</v>
@@ -9050,7 +9049,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="41"/>
       <c r="B318" s="20" t="s">
         <v>290</v>
@@ -9070,7 +9069,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="49"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="41">
         <v>42794</v>
       </c>
@@ -9094,7 +9093,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="41">
         <v>42825</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="41"/>
       <c r="B321" s="20" t="s">
         <v>293</v>
@@ -9138,7 +9137,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="49"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="41">
         <v>42855</v>
       </c>
@@ -9164,7 +9163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="41"/>
       <c r="B323" s="20" t="s">
         <v>294</v>
@@ -9186,7 +9185,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="41"/>
       <c r="B324" s="20" t="s">
         <v>119</v>
@@ -9206,7 +9205,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="41">
         <v>42886</v>
       </c>
@@ -9226,7 +9225,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="41">
         <v>42916</v>
       </c>
@@ -9246,7 +9245,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="41">
         <v>42947</v>
       </c>
@@ -9270,7 +9269,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="41"/>
       <c r="B328" s="20" t="s">
         <v>68</v>
@@ -9292,7 +9291,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="41"/>
       <c r="B329" s="20" t="s">
         <v>98</v>
@@ -9314,7 +9313,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41"/>
       <c r="B330" s="20" t="s">
         <v>299</v>
@@ -9334,7 +9333,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="49"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="41">
         <v>42978</v>
       </c>
@@ -9360,7 +9359,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="41">
         <v>43008</v>
       </c>
@@ -9384,7 +9383,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="41">
         <v>43039</v>
       </c>
@@ -9408,7 +9407,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="41">
         <v>43069</v>
       </c>
@@ -9428,7 +9427,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="41">
         <v>43100</v>
       </c>
@@ -9454,7 +9453,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="41"/>
       <c r="B336" s="20" t="s">
         <v>91</v>
@@ -9474,7 +9473,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="49"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="53" t="s">
         <v>62</v>
       </c>
@@ -9492,7 +9491,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="41">
         <v>43131</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="41">
         <v>43159</v>
       </c>
@@ -9538,7 +9537,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="41">
         <v>43190</v>
       </c>
@@ -9558,7 +9557,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="41">
         <v>43220</v>
       </c>
@@ -9578,7 +9577,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="41">
         <v>43251</v>
       </c>
@@ -9598,7 +9597,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="41">
         <v>43281</v>
       </c>
@@ -9618,7 +9617,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="41">
         <v>43312</v>
       </c>
@@ -9642,7 +9641,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41">
         <v>43343</v>
       </c>
@@ -9668,7 +9667,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="41">
         <v>43373</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="41">
         <v>43404</v>
       </c>
@@ -9714,7 +9713,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="41">
         <v>43434</v>
       </c>
@@ -9734,7 +9733,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="41">
         <v>43465</v>
       </c>
@@ -9758,7 +9757,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="53" t="s">
         <v>63</v>
       </c>
@@ -9776,7 +9775,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="41">
         <v>43496</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="41"/>
       <c r="B352" s="20" t="s">
         <v>163</v>
@@ -9822,7 +9821,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="41">
         <v>43524</v>
       </c>
@@ -9842,7 +9841,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="41">
         <v>43555</v>
       </c>
@@ -9868,7 +9867,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="41"/>
       <c r="B355" s="20" t="s">
         <v>142</v>
@@ -9888,7 +9887,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41">
         <v>43585</v>
       </c>
@@ -9908,7 +9907,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="41">
         <v>43616</v>
       </c>
@@ -9928,7 +9927,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="41">
         <v>43646</v>
       </c>
@@ -9948,7 +9947,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="41">
         <v>43677</v>
       </c>
@@ -9968,7 +9967,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="41">
         <v>43708</v>
       </c>
@@ -9988,7 +9987,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="41">
         <v>43738</v>
       </c>
@@ -10008,7 +10007,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="41">
         <v>43769</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="41">
         <v>43799</v>
       </c>
@@ -10054,7 +10053,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="41">
         <v>43830</v>
       </c>
@@ -10078,7 +10077,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="53" t="s">
         <v>64</v>
       </c>
@@ -10096,7 +10095,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="41">
         <v>43861</v>
       </c>
@@ -10116,7 +10115,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="41">
         <v>43889</v>
       </c>
@@ -10136,7 +10135,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="41">
         <v>43921</v>
       </c>
@@ -10156,7 +10155,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="41">
         <v>43951</v>
       </c>
@@ -10176,7 +10175,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="41">
         <v>43982</v>
       </c>
@@ -10196,7 +10195,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="41">
         <v>44012</v>
       </c>
@@ -10216,7 +10215,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="41">
         <v>44043</v>
       </c>
@@ -10236,7 +10235,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="41">
         <v>44074</v>
       </c>
@@ -10256,7 +10255,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="41">
         <v>44104</v>
       </c>
@@ -10276,7 +10275,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="41">
         <v>44135</v>
       </c>
@@ -10296,7 +10295,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="41">
         <v>44165</v>
       </c>
@@ -10316,7 +10315,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="41">
         <v>44196</v>
       </c>
@@ -10340,7 +10339,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="53" t="s">
         <v>65</v>
       </c>
@@ -10358,7 +10357,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="41">
         <v>44227</v>
       </c>
@@ -10382,7 +10381,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="41">
         <v>44255</v>
       </c>
@@ -10402,7 +10401,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="41">
         <v>44286</v>
       </c>
@@ -10422,7 +10421,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41">
         <v>44316</v>
       </c>
@@ -10442,7 +10441,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="41">
         <v>44347</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="41">
         <v>44377</v>
       </c>
@@ -10488,7 +10487,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="41">
         <v>44408</v>
       </c>
@@ -10508,7 +10507,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="41">
         <v>44439</v>
       </c>
@@ -10528,7 +10527,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="41">
         <v>44469</v>
       </c>
@@ -10548,7 +10547,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="41">
         <v>44500</v>
       </c>
@@ -10568,7 +10567,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="41">
         <v>44530</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="41"/>
       <c r="B390" s="20" t="s">
         <v>132</v>
@@ -10616,7 +10615,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="41">
         <v>44561</v>
       </c>
@@ -10640,7 +10639,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="53" t="s">
         <v>66</v>
       </c>
@@ -10658,7 +10657,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="41">
         <v>44562</v>
       </c>
@@ -10682,7 +10681,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="41">
         <v>44620</v>
       </c>
@@ -10702,7 +10701,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="41">
         <v>44651</v>
       </c>
@@ -10726,7 +10725,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="41">
         <v>44681</v>
       </c>
@@ -10750,7 +10749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="41">
         <v>44712</v>
       </c>
@@ -10770,7 +10769,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="41">
         <v>44742</v>
       </c>
@@ -10790,7 +10789,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="41">
         <v>44773</v>
       </c>
@@ -10810,7 +10809,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="41">
         <v>44804</v>
       </c>
@@ -10836,7 +10835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="41"/>
       <c r="B401" s="20" t="s">
         <v>205</v>
@@ -10856,7 +10855,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="49"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="41">
         <v>44834</v>
       </c>
@@ -10876,7 +10875,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="41">
         <v>44865</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="41">
         <v>44895</v>
       </c>
@@ -10928,7 +10927,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="41"/>
       <c r="B405" s="20" t="s">
         <v>136</v>
@@ -10950,7 +10949,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23" t="s">
         <v>328</v>
       </c>
@@ -10970,7 +10969,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="53" t="s">
         <v>329</v>
       </c>
@@ -10988,7 +10987,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>44957</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>44985</v>
       </c>
@@ -11034,7 +11033,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>45016</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>45046</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>45077</v>
       </c>
@@ -11098,7 +11097,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <v>45107</v>
       </c>
@@ -11118,11 +11117,13 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>45138</v>
       </c>
-      <c r="B414" s="20"/>
+      <c r="B414" s="20" t="s">
+        <v>163</v>
+      </c>
       <c r="C414" s="13"/>
       <c r="D414" s="40"/>
       <c r="E414" s="9"/>
@@ -11134,9 +11135,11 @@
       <c r="H414" s="40"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K414" s="54">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>45169</v>
       </c>
@@ -11154,7 +11157,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>45199</v>
       </c>
@@ -11172,7 +11175,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <v>45230</v>
       </c>
@@ -11190,7 +11193,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>45260</v>
       </c>
@@ -11208,7 +11211,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>45291</v>
       </c>
@@ -11226,7 +11229,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>45322</v>
       </c>
@@ -11244,7 +11247,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>45351</v>
       </c>
@@ -11262,7 +11265,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="41"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -11278,7 +11281,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="41"/>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -11294,7 +11297,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="41"/>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -11310,7 +11313,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="41"/>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -11326,7 +11329,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="41"/>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -11342,7 +11345,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="41"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -11358,7 +11361,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="41"/>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -11374,7 +11377,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="41"/>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -11390,7 +11393,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="41"/>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -11406,7 +11409,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="41"/>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -11422,7 +11425,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="41"/>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -11438,7 +11441,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="41"/>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -11454,7 +11457,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="41"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -11470,7 +11473,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -11486,7 +11489,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="41"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -11502,7 +11505,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="41"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -11518,7 +11521,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="41"/>
       <c r="B438" s="20"/>
       <c r="C438" s="13"/>
@@ -11534,7 +11537,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="41"/>
       <c r="B439" s="20"/>
       <c r="C439" s="13"/>
@@ -11550,7 +11553,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="41"/>
       <c r="B440" s="20"/>
       <c r="C440" s="13"/>
@@ -11566,7 +11569,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="41"/>
       <c r="B441" s="20"/>
       <c r="C441" s="13"/>
@@ -11582,7 +11585,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="41"/>
       <c r="B442" s="20"/>
       <c r="C442" s="13"/>
@@ -11598,7 +11601,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="41"/>
       <c r="B443" s="20"/>
       <c r="C443" s="13"/>
@@ -11614,7 +11617,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="41"/>
       <c r="B444" s="20"/>
       <c r="C444" s="13"/>
@@ -11630,7 +11633,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="41"/>
       <c r="B445" s="20"/>
       <c r="C445" s="13"/>
@@ -11646,7 +11649,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="41"/>
       <c r="B446" s="20"/>
       <c r="C446" s="13"/>
@@ -11662,7 +11665,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="41"/>
       <c r="B447" s="20"/>
       <c r="C447" s="13"/>
@@ -11678,7 +11681,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="41"/>
       <c r="B448" s="20"/>
       <c r="C448" s="13"/>
@@ -11694,7 +11697,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="41"/>
       <c r="B449" s="20"/>
       <c r="C449" s="13"/>
@@ -11710,7 +11713,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="41"/>
       <c r="B450" s="20"/>
       <c r="C450" s="13"/>
@@ -11726,7 +11729,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="41"/>
       <c r="B451" s="20"/>
       <c r="C451" s="13"/>
@@ -11742,7 +11745,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="41"/>
       <c r="B452" s="20"/>
       <c r="C452" s="13"/>
@@ -11758,7 +11761,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="41"/>
       <c r="B453" s="20"/>
       <c r="C453" s="13"/>
@@ -11774,7 +11777,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="41"/>
       <c r="B454" s="20"/>
       <c r="C454" s="13"/>
@@ -11790,7 +11793,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="41"/>
       <c r="B455" s="20"/>
       <c r="C455" s="13"/>
@@ -11806,7 +11809,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="41"/>
       <c r="B456" s="20"/>
       <c r="C456" s="13"/>
@@ -11822,7 +11825,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="41"/>
       <c r="B457" s="20"/>
       <c r="C457" s="13"/>
@@ -11838,7 +11841,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="41"/>
       <c r="B458" s="20"/>
       <c r="C458" s="13"/>
@@ -11854,7 +11857,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="41"/>
       <c r="B459" s="20"/>
       <c r="C459" s="13"/>
@@ -11870,7 +11873,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="41"/>
       <c r="B460" s="20"/>
       <c r="C460" s="13"/>
@@ -11886,7 +11889,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="41"/>
       <c r="B461" s="20"/>
       <c r="C461" s="13"/>
@@ -11899,7 +11902,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="41"/>
       <c r="B462" s="20"/>
       <c r="C462" s="13"/>
@@ -11912,7 +11915,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41"/>
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
@@ -11925,7 +11928,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="41"/>
       <c r="B464" s="20"/>
       <c r="C464" s="13"/>
@@ -11938,7 +11941,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="42"/>
       <c r="B465" s="15"/>
       <c r="C465" s="43"/>
@@ -11967,10 +11970,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11993,28 +11996,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -12027,7 +12030,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12056,7 +12059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -12078,7 +12081,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -12093,10 +12096,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -12116,7 +12119,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -12142,7 +12145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -12168,7 +12171,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -12246,7 +12249,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -12324,7 +12327,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -12344,7 +12347,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -12364,7 +12367,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -12426,7 +12429,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -12447,7 +12450,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -12468,7 +12471,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -12510,7 +12513,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -12573,7 +12576,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -12594,7 +12597,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -12615,7 +12618,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -12636,7 +12639,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -12678,7 +12681,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -12699,7 +12702,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -12720,7 +12723,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -12741,7 +12744,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -12762,7 +12765,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -12783,7 +12786,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -12804,7 +12807,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -12813,7 +12816,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -12822,7 +12825,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -12831,7 +12834,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -12840,7 +12843,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -12849,7 +12852,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -12858,7 +12861,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -12867,7 +12870,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -12876,7 +12879,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -12885,7 +12888,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -12894,7 +12897,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -12903,7 +12906,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -12912,7 +12915,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -12921,7 +12924,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -12930,7 +12933,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -12939,7 +12942,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -12948,7 +12951,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -12957,7 +12960,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -12966,7 +12969,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -12975,7 +12978,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -12984,7 +12987,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -12993,7 +12996,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -13002,7 +13005,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -13011,7 +13014,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -13020,7 +13023,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -13029,7 +13032,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -13038,7 +13041,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -13047,7 +13050,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -13056,7 +13059,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -13065,7 +13068,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
